--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>268417.5410427948</v>
+        <v>272463.1043111884</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11821355.91763805</v>
+        <v>12215006.43341689</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10162932.89091065</v>
+        <v>10110838.6025033</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6499950.109125282</v>
+        <v>6502254.778634815</v>
       </c>
     </row>
     <row r="11">
@@ -662,10 +664,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>83.40964586891802</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>225.5567228985696</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -713,7 +715,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868343</v>
+        <v>106.9101097868341</v>
       </c>
       <c r="T3" t="n">
         <v>157.7484451748619</v>
@@ -820,22 +822,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>101.6816128081183</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>84.62146965378281</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>49.76702467574361</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1023,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>106.9101097868346</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T6" t="n">
         <v>157.7484451748619</v>
       </c>
       <c r="U6" t="n">
-        <v>195.3773027531635</v>
+        <v>195.3773027531633</v>
       </c>
       <c r="V6" t="n">
         <v>211.5744117368965</v>
@@ -1054,25 +1056,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>83.76217398785586</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>66.72216088494372</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>6.628923455408183</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
-        <v>105.9202115588047</v>
+        <v>105.9202115588044</v>
       </c>
       <c r="H9" t="n">
         <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>113.6794429932544</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>392.5647472501408</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>290.9405658215225</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1467,7 +1469,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I12" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>106.9101097868343</v>
+        <v>106.9101097868341</v>
       </c>
       <c r="T12" t="n">
         <v>157.7484451748619</v>
@@ -1607,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>321.8294296667081</v>
+        <v>84.7653348515814</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1667,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1734,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>106.9101097868343</v>
+        <v>106.9101097868341</v>
       </c>
       <c r="T15" t="n">
         <v>157.7484451748619</v>
@@ -1850,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>386.8650699901659</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1901,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>40.39502321397722</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1986,7 +1988,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X18" t="n">
-        <v>174.5627220424963</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y18" t="n">
         <v>157.8079400398083</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.85798684944075</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
@@ -2062,13 +2064,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="20">
@@ -2084,19 +2086,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>399.0441766499191</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>40.3950232139772</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>228.2601210751807</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -2315,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>404.743853909894</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>40.39502321397676</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2378,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2527,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>164.5078794940942</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -2542,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672388</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>188.4477123002172</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2612,16 +2614,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>312.766066543294</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>79.69251257947863</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>228.2601210751802</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
@@ -2776,10 +2778,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>90.69280794983001</v>
+        <v>217.9058200254302</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2849,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2919,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>106.9101097868346</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T30" t="n">
         <v>157.7484451748619</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>228.2601210751802</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>65.31383608752321</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>360.9157434723828</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>29.59826006799016</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -3126,7 +3128,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I33" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3238,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>220.2647746254032</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
@@ -3272,7 +3274,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>75.74436353041882</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3281,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3329,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>6.338580986754886</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I36" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3439,7 +3441,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>54.68688746169101</v>
+        <v>19.50042337073094</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3481,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>298.0721989747363</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,13 +3559,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>40.0344070974574</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>58.41410620201638</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>159.6238532468201</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3746,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>408.1402151083913</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>35.07315710718577</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3837,7 +3839,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I42" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>162.592041969233</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -3904,13 +3906,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>35.73692418651402</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3989,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>234.6527613570418</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>107.1631593534817</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>214.8428175635996</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>254.3959226581688</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>326.723563490941</v>
       </c>
     </row>
     <row r="45">
@@ -4068,13 +4070,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>105.9202115588047</v>
+        <v>105.2917708025282</v>
       </c>
       <c r="H45" t="n">
-        <v>70.03974083464111</v>
+        <v>63.97032616218182</v>
       </c>
       <c r="I45" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>106.9101097868343</v>
+        <v>95.23709837091006</v>
       </c>
       <c r="T45" t="n">
-        <v>157.748445174862</v>
+        <v>155.2153879160108</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3773027531635</v>
+        <v>195.3359579665663</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>136.1769805884545</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>165.0510235443431</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>143.4270840994813</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>99.33835950151285</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>53.22081610754638</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4304,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>536.1418438606936</v>
+        <v>679.7247499512507</v>
       </c>
       <c r="C2" t="n">
-        <v>126.0172531739637</v>
+        <v>269.6001592645208</v>
       </c>
       <c r="D2" t="n">
-        <v>41.76508562960205</v>
+        <v>269.6001592645208</v>
       </c>
       <c r="E2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L2" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M2" t="n">
-        <v>558.6080202959273</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N2" t="n">
-        <v>1075.450954962253</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O2" t="n">
-        <v>1592.293889628578</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4358,22 +4360,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221062</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="U2" t="n">
-        <v>1730.766722221062</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V2" t="n">
-        <v>1730.766722221062</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W2" t="n">
-        <v>1347.00642135623</v>
+        <v>1089.94592961574</v>
       </c>
       <c r="X2" t="n">
-        <v>946.3630235251831</v>
+        <v>1089.94592961574</v>
       </c>
       <c r="Y2" t="n">
-        <v>946.3630235251831</v>
+        <v>1089.94592961574</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G3" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M3" t="n">
-        <v>558.6080202959273</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N3" t="n">
-        <v>1075.450954962253</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O3" t="n">
-        <v>1592.293889628578</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4443,16 +4445,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.8584580678856</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C4" t="n">
-        <v>41.76508562960205</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D4" t="n">
-        <v>41.76508562960205</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E4" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F4" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G4" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L4" t="n">
         <v>470.2970630371111</v>
@@ -4510,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V4" t="n">
-        <v>503.2668642681101</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W4" t="n">
-        <v>400.5581644619299</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X4" t="n">
-        <v>400.5581644619299</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y4" t="n">
-        <v>400.5581644619299</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>757.1375129088235</v>
+        <v>1592.556869842094</v>
       </c>
       <c r="C5" t="n">
-        <v>757.1375129088235</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="D5" t="n">
-        <v>352.673583001884</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="E5" t="n">
-        <v>352.673583001884</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="F5" t="n">
-        <v>352.673583001884</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G5" t="n">
         <v>352.673583001884</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K5" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="L5" t="n">
-        <v>1329.636426430007</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="M5" t="n">
-        <v>1329.636426430007</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N5" t="n">
         <v>1726.536628995245</v>
@@ -4592,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>2002.778049506584</v>
       </c>
       <c r="T5" t="n">
-        <v>1866.047797426961</v>
+        <v>2002.778049506584</v>
       </c>
       <c r="U5" t="n">
-        <v>1608.987305686471</v>
+        <v>2002.778049506584</v>
       </c>
       <c r="V5" t="n">
-        <v>1558.717583791781</v>
+        <v>2002.778049506584</v>
       </c>
       <c r="W5" t="n">
-        <v>1558.717583791781</v>
+        <v>2002.778049506584</v>
       </c>
       <c r="X5" t="n">
-        <v>1158.074185960733</v>
+        <v>2002.778049506584</v>
       </c>
       <c r="Y5" t="n">
-        <v>757.1375129088235</v>
+        <v>2002.778049506584</v>
       </c>
     </row>
     <row r="6">
@@ -4638,25 +4640,25 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J6" t="n">
-        <v>52.35970185319792</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>508.1659581184966</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1025.008892784822</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M6" t="n">
-        <v>1025.008892784822</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N6" t="n">
-        <v>1541.851827451147</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="O6" t="n">
         <v>2058.694762117472</v>
@@ -4699,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.76508562960205</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C7" t="n">
-        <v>41.76508562960205</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J7" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K7" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L7" t="n">
         <v>470.2970630371111</v>
@@ -4747,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>692.5443527751984</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>692.5443527751984</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>454.2004906348818</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y7" t="n">
-        <v>229.4647920236465</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287.260303845748</v>
+        <v>1270.693821706375</v>
       </c>
       <c r="C8" t="n">
-        <v>877.1357131590178</v>
+        <v>860.5692310196448</v>
       </c>
       <c r="D8" t="n">
-        <v>877.1357131590178</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="E8" t="n">
-        <v>462.7954976759145</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L8" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="M8" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="N8" t="n">
-        <v>1075.450954962253</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O8" t="n">
-        <v>1571.411346813777</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q8" t="n">
         <v>2088.254281480102</v>
@@ -4835,19 +4837,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>2020.858159374098</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V8" t="n">
-        <v>1671.020604710579</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W8" t="n">
-        <v>1287.260303845748</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X8" t="n">
-        <v>1287.260303845748</v>
+        <v>1687.610883649054</v>
       </c>
       <c r="Y8" t="n">
-        <v>1287.260303845748</v>
+        <v>1680.915001370864</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161362</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650818</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844742</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768022</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593068</v>
       </c>
       <c r="G9" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>497.5713418949007</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L9" t="n">
-        <v>497.5713418949007</v>
+        <v>751.4208778585604</v>
       </c>
       <c r="M9" t="n">
-        <v>1014.414276561226</v>
+        <v>1268.263812524885</v>
       </c>
       <c r="N9" t="n">
-        <v>1531.257211227551</v>
+        <v>1785.106747191211</v>
       </c>
       <c r="O9" t="n">
-        <v>1738.409816796119</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P9" t="n">
-        <v>1738.409816796119</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4914,19 +4916,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U9" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517228</v>
       </c>
     </row>
     <row r="10">
@@ -4936,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>920.3847151048558</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C10" t="n">
-        <v>749.2913426665723</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D10" t="n">
-        <v>589.7966979894823</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E10" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F10" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G10" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L10" t="n">
         <v>470.2970630371111</v>
@@ -4984,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T10" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U10" t="n">
-        <v>1571.163982250452</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V10" t="n">
-        <v>1571.163982250452</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W10" t="n">
-        <v>1571.163982250452</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X10" t="n">
-        <v>1332.820120110135</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="Y10" t="n">
-        <v>1108.0844214989</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1691.724233752687</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="C11" t="n">
-        <v>1281.599643065957</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="D11" t="n">
-        <v>877.1357131590178</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E11" t="n">
-        <v>462.7954976759145</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J11" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K11" t="n">
-        <v>497.1688317915616</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="L11" t="n">
-        <v>1014.011766457887</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="M11" t="n">
-        <v>1530.854701124212</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N11" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O11" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P11" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q11" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R11" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T11" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="U11" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V11" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817052</v>
       </c>
       <c r="W11" t="n">
-        <v>2088.254281480102</v>
+        <v>740.1083749522209</v>
       </c>
       <c r="X11" t="n">
-        <v>2088.254281480102</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="Y11" t="n">
-        <v>2088.254281480102</v>
+        <v>446.2290155365415</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C12" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D12" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E12" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F12" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G12" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J12" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K12" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L12" t="n">
-        <v>41.76508562960205</v>
+        <v>508.1659581184963</v>
       </c>
       <c r="M12" t="n">
-        <v>558.6080202959273</v>
+        <v>1025.008892784821</v>
       </c>
       <c r="N12" t="n">
-        <v>1075.450954962253</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O12" t="n">
-        <v>1592.293889628578</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P12" t="n">
         <v>2058.694762117472</v>
@@ -5154,16 +5156,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V12" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W12" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X12" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y12" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J13" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K13" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L13" t="n">
         <v>470.2970630371111</v>
@@ -5239,10 +5241,10 @@
         <v>224.1971997769844</v>
       </c>
       <c r="X13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1168.569507578324</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="C14" t="n">
-        <v>1168.569507578324</v>
+        <v>1678.129690793372</v>
       </c>
       <c r="D14" t="n">
-        <v>764.1055776713847</v>
+        <v>1273.665760886433</v>
       </c>
       <c r="E14" t="n">
-        <v>764.1055776713847</v>
+        <v>859.3255454033292</v>
       </c>
       <c r="F14" t="n">
-        <v>764.1055776713847</v>
+        <v>438.2951333570168</v>
       </c>
       <c r="G14" t="n">
-        <v>439.0253456848109</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H14" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L14" t="n">
-        <v>558.6080202959273</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.011766457887</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N14" t="n">
-        <v>1530.854701124212</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O14" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P14" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q14" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R14" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S14" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T14" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U14" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V14" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W14" t="n">
-        <v>1569.212905409372</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X14" t="n">
-        <v>1168.569507578324</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y14" t="n">
-        <v>1168.569507578324</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="15">
@@ -5331,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C15" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D15" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E15" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F15" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G15" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K15" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L15" t="n">
-        <v>537.7254774811266</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M15" t="n">
-        <v>1054.568412147452</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N15" t="n">
-        <v>1571.411346813777</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O15" t="n">
-        <v>2088.254281480102</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P15" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q15" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R15" t="n">
         <v>2088.254281480102</v>
@@ -5391,16 +5393,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V15" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W15" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X15" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y15" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K16" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L16" t="n">
         <v>470.2970630371111</v>
@@ -5476,10 +5478,10 @@
         <v>224.1971997769844</v>
       </c>
       <c r="X16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>451.8896763163319</v>
+        <v>1678.033101815612</v>
       </c>
       <c r="C17" t="n">
-        <v>41.76508562960205</v>
+        <v>1267.908511128882</v>
       </c>
       <c r="D17" t="n">
-        <v>41.76508562960205</v>
+        <v>1267.908511128882</v>
       </c>
       <c r="E17" t="n">
-        <v>41.76508562960205</v>
+        <v>853.568295645779</v>
       </c>
       <c r="F17" t="n">
-        <v>41.76508562960205</v>
+        <v>432.5378835994666</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K17" t="n">
-        <v>558.6080202959273</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="L17" t="n">
-        <v>733.4074053521598</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="M17" t="n">
-        <v>733.4074053521598</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N17" t="n">
-        <v>733.4074053521598</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O17" t="n">
-        <v>1250.250340018485</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P17" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q17" t="n">
         <v>2088.254281480102</v>
@@ -5549,16 +5551,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V17" t="n">
-        <v>2047.45122772861</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W17" t="n">
-        <v>1663.690926863779</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X17" t="n">
-        <v>1263.047529032731</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y17" t="n">
-        <v>862.1108559808214</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5588,31 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K18" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L18" t="n">
-        <v>558.6080202959273</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M18" t="n">
-        <v>558.6080202959273</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="N18" t="n">
-        <v>1075.450954962253</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O18" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P18" t="n">
-        <v>1738.409816796119</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q18" t="n">
         <v>2088.254281480102</v>
@@ -5628,10 +5630,10 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X18" t="n">
         <v>1020.300919787893</v>
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L19" t="n">
         <v>470.2970630371111</v>
@@ -5698,25 +5700,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S19" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T19" t="n">
-        <v>1145.223475107064</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U19" t="n">
-        <v>862.4253276531883</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V19" t="n">
-        <v>588.5395825927103</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W19" t="n">
-        <v>588.5395825927103</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X19" t="n">
-        <v>350.1957204523937</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y19" t="n">
-        <v>125.4600218411584</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>492.6927300678241</v>
+        <v>1678.033101815612</v>
       </c>
       <c r="C20" t="n">
-        <v>82.56813938109417</v>
+        <v>1267.908511128882</v>
       </c>
       <c r="D20" t="n">
-        <v>82.56813938109417</v>
+        <v>864.8335852198732</v>
       </c>
       <c r="E20" t="n">
-        <v>82.56813938109417</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="F20" t="n">
-        <v>82.56813938109417</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G20" t="n">
-        <v>82.56813938109417</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H20" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I20" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J20" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K20" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L20" t="n">
-        <v>692.8507596625949</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M20" t="n">
-        <v>692.8507596625949</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N20" t="n">
-        <v>692.8507596625949</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O20" t="n">
-        <v>1209.69369432892</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P20" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q20" t="n">
         <v>2047.697635790537</v>
@@ -5789,13 +5791,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W20" t="n">
-        <v>1704.493980615271</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X20" t="n">
-        <v>1303.850582784223</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y20" t="n">
-        <v>902.9139097323135</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I21" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="J21" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="K21" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L21" t="n">
-        <v>558.6080202959273</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M21" t="n">
-        <v>1054.568412147451</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N21" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O21" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P21" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q21" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R21" t="n">
         <v>2088.254281480102</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1131.098935930739</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="C22" t="n">
-        <v>960.0055634924552</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="D22" t="n">
-        <v>800.5109188153651</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="E22" t="n">
-        <v>639.6001036836846</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="F22" t="n">
-        <v>474.9689777942758</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="G22" t="n">
-        <v>307.7185867198193</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="H22" t="n">
-        <v>158.1111315252759</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="I22" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J22" t="n">
-        <v>55.84763503481257</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K22" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L22" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M22" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N22" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O22" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P22" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q22" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R22" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S22" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T22" t="n">
-        <v>1571.163982250452</v>
+        <v>1857.688502616283</v>
       </c>
       <c r="U22" t="n">
-        <v>1571.163982250452</v>
+        <v>1574.890355162407</v>
       </c>
       <c r="V22" t="n">
-        <v>1571.163982250452</v>
+        <v>1301.004610101929</v>
       </c>
       <c r="W22" t="n">
-        <v>1571.163982250452</v>
+        <v>1021.934945610803</v>
       </c>
       <c r="X22" t="n">
-        <v>1543.534340936018</v>
+        <v>783.5910834704868</v>
       </c>
       <c r="Y22" t="n">
-        <v>1318.798642324783</v>
+        <v>558.8553848592514</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1679.422105813543</v>
+        <v>492.6927300678236</v>
       </c>
       <c r="C23" t="n">
-        <v>1269.297515126813</v>
+        <v>82.56813938109372</v>
       </c>
       <c r="D23" t="n">
-        <v>864.8335852198732</v>
+        <v>82.56813938109372</v>
       </c>
       <c r="E23" t="n">
-        <v>450.4933697367699</v>
+        <v>82.56813938109372</v>
       </c>
       <c r="F23" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G23" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H23" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I23" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J23" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K23" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L23" t="n">
-        <v>295.9505570973564</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M23" t="n">
-        <v>733.4074053521598</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N23" t="n">
-        <v>1250.250340018485</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O23" t="n">
-        <v>1250.250340018485</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P23" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q23" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R23" t="n">
         <v>2088.254281480102</v>
@@ -6026,13 +6028,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W23" t="n">
-        <v>2088.254281480102</v>
+        <v>1704.49398061527</v>
       </c>
       <c r="X23" t="n">
-        <v>2088.254281480102</v>
+        <v>1303.850582784223</v>
       </c>
       <c r="Y23" t="n">
-        <v>2088.254281480102</v>
+        <v>902.9139097323131</v>
       </c>
     </row>
     <row r="24">
@@ -6042,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C24" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D24" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E24" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F24" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G24" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H24" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I24" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J24" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K24" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L24" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M24" t="n">
-        <v>1014.414276561226</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="N24" t="n">
-        <v>1192.007362767164</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O24" t="n">
-        <v>1708.850297433489</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P24" t="n">
-        <v>1708.850297433489</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q24" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R24" t="n">
         <v>2088.254281480102</v>
@@ -6102,16 +6104,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V24" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W24" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X24" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y24" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>201.259730306692</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="C25" t="n">
-        <v>201.259730306692</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="D25" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="E25" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="F25" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="G25" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="H25" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="I25" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J25" t="n">
-        <v>55.84763503481257</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K25" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L25" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M25" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N25" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O25" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P25" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q25" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R25" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S25" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T25" t="n">
-        <v>1571.163982250452</v>
+        <v>1848.705542456804</v>
       </c>
       <c r="U25" t="n">
-        <v>1404.994407003892</v>
+        <v>1565.907395002928</v>
       </c>
       <c r="V25" t="n">
-        <v>1131.108661943414</v>
+        <v>1292.02164994245</v>
       </c>
       <c r="W25" t="n">
-        <v>852.0389974522884</v>
+        <v>1012.951985451324</v>
       </c>
       <c r="X25" t="n">
-        <v>613.6951353119717</v>
+        <v>774.6081233110078</v>
       </c>
       <c r="Y25" t="n">
-        <v>388.9594367007364</v>
+        <v>558.8553848592514</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>757.1375129088235</v>
+        <v>722.9320027651423</v>
       </c>
       <c r="C26" t="n">
-        <v>757.1375129088235</v>
+        <v>722.9320027651423</v>
       </c>
       <c r="D26" t="n">
-        <v>352.673583001884</v>
+        <v>318.4680728582028</v>
       </c>
       <c r="E26" t="n">
-        <v>352.673583001884</v>
+        <v>318.4680728582028</v>
       </c>
       <c r="F26" t="n">
-        <v>352.673583001884</v>
+        <v>318.4680728582028</v>
       </c>
       <c r="G26" t="n">
-        <v>352.673583001884</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H26" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J26" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K26" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L26" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="M26" t="n">
-        <v>176.0078249962696</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="N26" t="n">
-        <v>692.8507596625949</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="O26" t="n">
         <v>1209.69369432892</v>
@@ -6254,22 +6256,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T26" t="n">
-        <v>1730.766722221062</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="U26" t="n">
         <v>1473.706230480572</v>
       </c>
       <c r="V26" t="n">
-        <v>1157.780910739871</v>
+        <v>1123.868675817052</v>
       </c>
       <c r="W26" t="n">
-        <v>1157.780910739871</v>
+        <v>1123.868675817052</v>
       </c>
       <c r="X26" t="n">
-        <v>757.1375129088235</v>
+        <v>1123.868675817052</v>
       </c>
       <c r="Y26" t="n">
-        <v>757.1375129088235</v>
+        <v>722.9320027651423</v>
       </c>
     </row>
     <row r="27">
@@ -6279,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C27" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D27" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E27" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F27" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G27" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H27" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I27" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J27" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K27" t="n">
-        <v>497.5713418949007</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L27" t="n">
-        <v>704.7239474634683</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M27" t="n">
-        <v>1221.566882129794</v>
+        <v>751.4208778585604</v>
       </c>
       <c r="N27" t="n">
-        <v>1738.409816796119</v>
+        <v>1268.263812524885</v>
       </c>
       <c r="O27" t="n">
-        <v>1738.409816796119</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P27" t="n">
-        <v>1738.409816796119</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q27" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R27" t="n">
         <v>2088.254281480102</v>
@@ -6339,16 +6341,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V27" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W27" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X27" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y27" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>547.7107188509281</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C28" t="n">
-        <v>547.7107188509281</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D28" t="n">
-        <v>388.2160741738381</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E28" t="n">
-        <v>388.2160741738381</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F28" t="n">
-        <v>388.2160741738381</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G28" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H28" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J28" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K28" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L28" t="n">
         <v>470.2970630371111</v>
@@ -6412,22 +6414,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T28" t="n">
-        <v>1571.163982250452</v>
+        <v>1340.598203386633</v>
       </c>
       <c r="U28" t="n">
-        <v>1288.365834796576</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V28" t="n">
-        <v>1014.480089736098</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W28" t="n">
-        <v>735.4104252449724</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X28" t="n">
-        <v>735.4104252449724</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y28" t="n">
-        <v>735.4104252449724</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>543.4985732353522</v>
+        <v>758.3483279138347</v>
       </c>
       <c r="C29" t="n">
-        <v>133.3739825486223</v>
+        <v>348.2237372271048</v>
       </c>
       <c r="D29" t="n">
-        <v>133.3739825486223</v>
+        <v>348.2237372271048</v>
       </c>
       <c r="E29" t="n">
-        <v>133.3739825486223</v>
+        <v>348.2237372271048</v>
       </c>
       <c r="F29" t="n">
-        <v>133.3739825486223</v>
+        <v>348.2237372271048</v>
       </c>
       <c r="G29" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H29" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I29" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J29" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K29" t="n">
-        <v>295.9505570973564</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L29" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M29" t="n">
-        <v>1329.636426430007</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N29" t="n">
-        <v>1571.411346813777</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O29" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P29" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q29" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R29" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S29" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T29" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U29" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V29" t="n">
-        <v>1738.416726816583</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W29" t="n">
-        <v>1354.656425951752</v>
+        <v>1569.212905409372</v>
       </c>
       <c r="X29" t="n">
-        <v>1354.656425951752</v>
+        <v>1168.569507578324</v>
       </c>
       <c r="Y29" t="n">
-        <v>953.7197528998416</v>
+        <v>1168.569507578324</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6536,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H30" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I30" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J30" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K30" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L30" t="n">
-        <v>234.5779431922353</v>
+        <v>187.8810127971431</v>
       </c>
       <c r="M30" t="n">
-        <v>675.1644281008383</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="N30" t="n">
-        <v>675.1644281008383</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="O30" t="n">
-        <v>1192.007362767164</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="P30" t="n">
-        <v>1708.850297433489</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q30" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R30" t="n">
         <v>2088.254281480102</v>
@@ -6576,10 +6578,10 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V30" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W30" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X30" t="n">
         <v>1020.300919787893</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C31" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D31" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E31" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F31" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G31" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H31" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I31" t="n">
         <v>41.76508562960205</v>
@@ -6646,25 +6648,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S31" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T31" t="n">
-        <v>1384.772214130362</v>
+        <v>1340.598203386633</v>
       </c>
       <c r="U31" t="n">
-        <v>1384.772214130362</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V31" t="n">
-        <v>1384.772214130362</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W31" t="n">
-        <v>1384.772214130362</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X31" t="n">
-        <v>1384.772214130362</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y31" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>462.7954976759145</v>
+        <v>1208.050632634561</v>
       </c>
       <c r="C32" t="n">
-        <v>462.7954976759145</v>
+        <v>1208.050632634561</v>
       </c>
       <c r="D32" t="n">
-        <v>462.7954976759145</v>
+        <v>803.5867027276217</v>
       </c>
       <c r="E32" t="n">
-        <v>462.7954976759145</v>
+        <v>803.5867027276217</v>
       </c>
       <c r="F32" t="n">
-        <v>41.76508562960205</v>
+        <v>803.5867027276217</v>
       </c>
       <c r="G32" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H32" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I32" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J32" t="n">
-        <v>295.9505570973564</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="K32" t="n">
-        <v>812.7934917636817</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="L32" t="n">
-        <v>1329.636426430007</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="M32" t="n">
-        <v>1726.536628995245</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="N32" t="n">
-        <v>1726.536628995245</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="O32" t="n">
-        <v>1726.536628995245</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P32" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q32" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R32" t="n">
         <v>2088.254281480102</v>
@@ -6728,22 +6730,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T32" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U32" t="n">
-        <v>2058.357049088193</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V32" t="n">
-        <v>2058.357049088193</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="W32" t="n">
-        <v>1674.596748223361</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="X32" t="n">
-        <v>1273.953350392314</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="Y32" t="n">
-        <v>873.0166773404039</v>
+        <v>1208.050632634561</v>
       </c>
     </row>
     <row r="33">
@@ -6756,7 +6758,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C33" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D33" t="n">
         <v>469.7036984844747</v>
@@ -6765,13 +6767,13 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F33" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G33" t="n">
         <v>133.260889973646</v>
       </c>
       <c r="H33" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I33" t="n">
         <v>41.76508562960205</v>
@@ -6789,10 +6791,10 @@
         <v>1075.450954962253</v>
       </c>
       <c r="N33" t="n">
+        <v>1075.450954962253</v>
+      </c>
+      <c r="O33" t="n">
         <v>1592.293889628578</v>
-      </c>
-      <c r="O33" t="n">
-        <v>2088.254281480102</v>
       </c>
       <c r="P33" t="n">
         <v>2088.254281480102</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1214.985342995715</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C34" t="n">
-        <v>1043.891970557431</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D34" t="n">
-        <v>884.3973258803412</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E34" t="n">
-        <v>723.4865107486606</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F34" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G34" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H34" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I34" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J34" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K34" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L34" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M34" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N34" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O34" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P34" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q34" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R34" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S34" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T34" t="n">
-        <v>2088.254281480102</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U34" t="n">
-        <v>2088.254281480102</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V34" t="n">
-        <v>2088.254281480102</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W34" t="n">
-        <v>1865.764610141311</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X34" t="n">
-        <v>1627.420748000995</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y34" t="n">
-        <v>1402.685049389759</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="35">
@@ -6911,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1270.693821706375</v>
+        <v>1330.123324390014</v>
       </c>
       <c r="C35" t="n">
-        <v>860.5692310196448</v>
+        <v>919.9987337032845</v>
       </c>
       <c r="D35" t="n">
-        <v>456.1053011127053</v>
+        <v>515.534803796345</v>
       </c>
       <c r="E35" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="F35" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G35" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H35" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I35" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J35" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K35" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L35" t="n">
-        <v>558.6080202959273</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M35" t="n">
-        <v>1075.450954962253</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N35" t="n">
-        <v>1592.293889628578</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O35" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P35" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q35" t="n">
         <v>2047.697635790537</v>
@@ -6962,25 +6964,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S35" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T35" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U35" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V35" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W35" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X35" t="n">
-        <v>2081.851674422774</v>
+        <v>1330.123324390014</v>
       </c>
       <c r="Y35" t="n">
-        <v>1680.915001370864</v>
+        <v>1330.123324390014</v>
       </c>
     </row>
     <row r="36">
@@ -6993,7 +6995,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C36" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D36" t="n">
         <v>469.7036984844747</v>
@@ -7002,37 +7004,37 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F36" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G36" t="n">
         <v>133.260889973646</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I36" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J36" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K36" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L36" t="n">
-        <v>558.6080202959273</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="M36" t="n">
-        <v>1075.450954962253</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="N36" t="n">
-        <v>1592.293889628578</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="O36" t="n">
-        <v>2088.254281480102</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P36" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q36" t="n">
         <v>2088.254281480102</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>920.3847151048558</v>
+        <v>884.8428321846941</v>
       </c>
       <c r="C37" t="n">
-        <v>749.2913426665723</v>
+        <v>713.7494597464106</v>
       </c>
       <c r="D37" t="n">
-        <v>589.7966979894823</v>
+        <v>554.2548150693206</v>
       </c>
       <c r="E37" t="n">
-        <v>428.8858828578017</v>
+        <v>393.34399993764</v>
       </c>
       <c r="F37" t="n">
-        <v>264.254756968393</v>
+        <v>228.7128740482313</v>
       </c>
       <c r="G37" t="n">
-        <v>97.00436589393641</v>
+        <v>61.46248297377471</v>
       </c>
       <c r="H37" t="n">
         <v>41.76508562960205</v>
@@ -7129,16 +7131,16 @@
         <v>1571.163982250452</v>
       </c>
       <c r="V37" t="n">
-        <v>1571.163982250452</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="W37" t="n">
-        <v>1571.163982250452</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="X37" t="n">
-        <v>1332.820120110135</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="Y37" t="n">
-        <v>1108.0844214989</v>
+        <v>1072.542538578738</v>
       </c>
     </row>
     <row r="38">
@@ -7148,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1690.327927173125</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="C38" t="n">
-        <v>1690.327927173125</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="D38" t="n">
-        <v>1285.863997266186</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="E38" t="n">
-        <v>871.5237817830823</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="F38" t="n">
-        <v>450.4933697367699</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G38" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H38" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I38" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J38" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K38" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L38" t="n">
-        <v>1329.636426430007</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M38" t="n">
-        <v>1846.479361096332</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="N38" t="n">
-        <v>2047.697635790537</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O38" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P38" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q38" t="n">
         <v>2047.697635790537</v>
@@ -7205,19 +7207,19 @@
         <v>1730.766722221062</v>
       </c>
       <c r="U38" t="n">
-        <v>1690.327927173125</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V38" t="n">
-        <v>1690.327927173125</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W38" t="n">
-        <v>1690.327927173125</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X38" t="n">
-        <v>1690.327927173125</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="Y38" t="n">
-        <v>1690.327927173125</v>
+        <v>740.1083749522213</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7253,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J39" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K39" t="n">
-        <v>234.5779431922353</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L39" t="n">
-        <v>751.4208778585605</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="M39" t="n">
-        <v>1054.568412147452</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="N39" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O39" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P39" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q39" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R39" t="n">
         <v>2088.254281480102</v>
@@ -7306,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>201.259730306692</v>
+        <v>533.263917876656</v>
       </c>
       <c r="C40" t="n">
-        <v>201.259730306692</v>
+        <v>362.1705454383725</v>
       </c>
       <c r="D40" t="n">
-        <v>41.76508562960205</v>
+        <v>202.6759007612826</v>
       </c>
       <c r="E40" t="n">
         <v>41.76508562960205</v>
@@ -7354,28 +7356,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R40" t="n">
-        <v>1571.163982250452</v>
+        <v>1512.159834571647</v>
       </c>
       <c r="S40" t="n">
-        <v>1571.163982250452</v>
+        <v>1325.768066451558</v>
       </c>
       <c r="T40" t="n">
-        <v>1331.615243227154</v>
+        <v>1086.21932742826</v>
       </c>
       <c r="U40" t="n">
-        <v>1048.817095773278</v>
+        <v>1086.21932742826</v>
       </c>
       <c r="V40" t="n">
-        <v>774.9313507128002</v>
+        <v>812.3335823677817</v>
       </c>
       <c r="W40" t="n">
-        <v>613.6951353119717</v>
+        <v>533.263917876656</v>
       </c>
       <c r="X40" t="n">
-        <v>613.6951353119717</v>
+        <v>533.263917876656</v>
       </c>
       <c r="Y40" t="n">
-        <v>388.9594367007364</v>
+        <v>533.263917876656</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1277.096428763703</v>
+        <v>474.4527771062106</v>
       </c>
       <c r="C41" t="n">
-        <v>1277.096428763703</v>
+        <v>474.4527771062106</v>
       </c>
       <c r="D41" t="n">
-        <v>1277.096428763703</v>
+        <v>474.4527771062106</v>
       </c>
       <c r="E41" t="n">
-        <v>862.7562132805995</v>
+        <v>474.4527771062106</v>
       </c>
       <c r="F41" t="n">
-        <v>450.4933697367699</v>
+        <v>474.4527771062106</v>
       </c>
       <c r="G41" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H41" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I41" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J41" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K41" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L41" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M41" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N41" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O41" t="n">
-        <v>1530.854701124212</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P41" t="n">
-        <v>2047.697635790537</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="Q41" t="n">
         <v>2047.697635790537</v>
@@ -7439,22 +7441,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T41" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U41" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V41" t="n">
-        <v>2088.254281480102</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W41" t="n">
-        <v>2088.254281480102</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="X41" t="n">
-        <v>2088.254281480102</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="Y41" t="n">
-        <v>1687.317608428192</v>
+        <v>474.4527771062106</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C42" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D42" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E42" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F42" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G42" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H42" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I42" t="n">
         <v>41.76508562960205</v>
@@ -7494,22 +7496,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L42" t="n">
-        <v>690.384199457534</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M42" t="n">
-        <v>690.384199457534</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="N42" t="n">
-        <v>1207.227134123859</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O42" t="n">
-        <v>1724.070068790184</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P42" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q42" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R42" t="n">
         <v>2088.254281480102</v>
@@ -7524,16 +7526,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V42" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W42" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X42" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y42" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>372.3531027449756</v>
+        <v>733.9929469847658</v>
       </c>
       <c r="C43" t="n">
-        <v>201.259730306692</v>
+        <v>562.8995745464823</v>
       </c>
       <c r="D43" t="n">
-        <v>41.76508562960205</v>
+        <v>403.4049298693923</v>
       </c>
       <c r="E43" t="n">
-        <v>41.76508562960205</v>
+        <v>242.4941147377118</v>
       </c>
       <c r="F43" t="n">
-        <v>41.76508562960205</v>
+        <v>77.86298884830308</v>
       </c>
       <c r="G43" t="n">
         <v>41.76508562960205</v>
@@ -7594,25 +7596,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S43" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T43" t="n">
-        <v>1331.615243227154</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U43" t="n">
-        <v>1048.817095773278</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="V43" t="n">
-        <v>774.9313507128002</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="W43" t="n">
-        <v>774.9313507128002</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="X43" t="n">
-        <v>536.5874885724836</v>
+        <v>1146.428351990045</v>
       </c>
       <c r="Y43" t="n">
-        <v>536.5874885724836</v>
+        <v>921.6926533788102</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>278.7880768993413</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C44" t="n">
-        <v>278.7880768993413</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D44" t="n">
-        <v>278.7880768993413</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E44" t="n">
-        <v>278.7880768993413</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F44" t="n">
-        <v>278.7880768993413</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G44" t="n">
         <v>41.76508562960205</v>
@@ -7646,52 +7648,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J44" t="n">
-        <v>295.9505570973564</v>
+        <v>67.86648185510973</v>
       </c>
       <c r="K44" t="n">
-        <v>497.1688317915616</v>
+        <v>303.3850569143855</v>
       </c>
       <c r="L44" t="n">
-        <v>1014.011766457887</v>
+        <v>392.3541060255238</v>
       </c>
       <c r="M44" t="n">
-        <v>1530.854701124212</v>
+        <v>504.1754378270382</v>
       </c>
       <c r="N44" t="n">
-        <v>1530.854701124212</v>
+        <v>1021.018372493363</v>
       </c>
       <c r="O44" t="n">
-        <v>2047.697635790537</v>
+        <v>1124.680315181523</v>
       </c>
       <c r="P44" t="n">
-        <v>2047.697635790537</v>
+        <v>1641.523249847848</v>
       </c>
       <c r="Q44" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R44" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S44" t="n">
-        <v>1952.973206274203</v>
+        <v>1980.008665971535</v>
       </c>
       <c r="T44" t="n">
-        <v>1730.766722221062</v>
+        <v>1762.995718937596</v>
       </c>
       <c r="U44" t="n">
-        <v>1473.706230480572</v>
+        <v>1506.030140495001</v>
       </c>
       <c r="V44" t="n">
-        <v>1473.706230480572</v>
+        <v>1156.192585831482</v>
       </c>
       <c r="W44" t="n">
-        <v>1089.945929615741</v>
+        <v>772.4322849666505</v>
       </c>
       <c r="X44" t="n">
-        <v>1089.945929615741</v>
+        <v>371.788887135603</v>
       </c>
       <c r="Y44" t="n">
-        <v>689.0092565638307</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>720.5959275161365</v>
+        <v>693.0818256023001</v>
       </c>
       <c r="C45" t="n">
-        <v>586.6008562650821</v>
+        <v>559.0867543512458</v>
       </c>
       <c r="D45" t="n">
-        <v>469.7036984844746</v>
+        <v>442.1895965706382</v>
       </c>
       <c r="E45" t="n">
-        <v>349.2108824768026</v>
+        <v>321.6967805629662</v>
       </c>
       <c r="F45" t="n">
-        <v>240.2510026593071</v>
+        <v>212.7369007454708</v>
       </c>
       <c r="G45" t="n">
-        <v>133.2608899736458</v>
+        <v>106.381576702513</v>
       </c>
       <c r="H45" t="n">
-        <v>62.51367700936187</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I45" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J45" t="n">
-        <v>234.5779431922353</v>
+        <v>293.3580743661004</v>
       </c>
       <c r="K45" t="n">
-        <v>690.384199457534</v>
+        <v>810.2010090324256</v>
       </c>
       <c r="L45" t="n">
-        <v>1207.227134123859</v>
+        <v>889.7346920520993</v>
       </c>
       <c r="M45" t="n">
-        <v>1724.070068790184</v>
+        <v>990.3862803843508</v>
       </c>
       <c r="N45" t="n">
-        <v>2088.254281480102</v>
+        <v>1099.537317952486</v>
       </c>
       <c r="O45" t="n">
-        <v>2088.254281480102</v>
+        <v>1190.390175885779</v>
       </c>
       <c r="P45" t="n">
-        <v>2088.254281480102</v>
+        <v>1617.086675991506</v>
       </c>
       <c r="Q45" t="n">
-        <v>2088.254281480102</v>
+        <v>2046.348852837607</v>
       </c>
       <c r="R45" t="n">
-        <v>2088.254281480102</v>
+        <v>2046.348852837607</v>
       </c>
       <c r="S45" t="n">
-        <v>1980.264271594411</v>
+        <v>1950.149763574061</v>
       </c>
       <c r="T45" t="n">
-        <v>1820.922407781419</v>
+        <v>1793.366543456878</v>
       </c>
       <c r="U45" t="n">
-        <v>1623.571596919638</v>
+        <v>1596.057495005801</v>
       </c>
       <c r="V45" t="n">
-        <v>1409.860069912671</v>
+        <v>1382.345967998835</v>
       </c>
       <c r="W45" t="n">
-        <v>1196.626901649</v>
+        <v>1169.112799735164</v>
       </c>
       <c r="X45" t="n">
-        <v>1020.300919787893</v>
+        <v>992.7868178740567</v>
       </c>
       <c r="Y45" t="n">
-        <v>860.8989601517231</v>
+        <v>833.3848582378868</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>777.1526093285881</v>
+        <v>1109.830869165395</v>
       </c>
       <c r="C46" t="n">
-        <v>777.1526093285881</v>
+        <v>938.7374967271119</v>
       </c>
       <c r="D46" t="n">
-        <v>777.1526093285881</v>
+        <v>779.2428520500218</v>
       </c>
       <c r="E46" t="n">
-        <v>639.6001036836846</v>
+        <v>618.3320369183414</v>
       </c>
       <c r="F46" t="n">
-        <v>474.9689777942758</v>
+        <v>453.7009110289326</v>
       </c>
       <c r="G46" t="n">
-        <v>307.7185867198193</v>
+        <v>286.9827054285861</v>
       </c>
       <c r="H46" t="n">
-        <v>158.1111315252759</v>
+        <v>142.1068629038575</v>
       </c>
       <c r="I46" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J46" t="n">
-        <v>55.84763503481257</v>
+        <v>92.72440034530305</v>
       </c>
       <c r="K46" t="n">
-        <v>210.3999627570506</v>
+        <v>307.8765815673569</v>
       </c>
       <c r="L46" t="n">
-        <v>470.2970630371111</v>
+        <v>645.3206305278549</v>
       </c>
       <c r="M46" t="n">
-        <v>759.5611194776044</v>
+        <v>1016.347071467356</v>
       </c>
       <c r="N46" t="n">
-        <v>1040.399901871855</v>
+        <v>1377.004111605144</v>
       </c>
       <c r="O46" t="n">
-        <v>1299.960512198329</v>
+        <v>1710.289801917153</v>
       </c>
       <c r="P46" t="n">
-        <v>1505.635952447941</v>
+        <v>1979.049784495525</v>
       </c>
       <c r="Q46" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R46" t="n">
-        <v>1485.891263925851</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S46" t="n">
-        <v>1299.499495805762</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T46" t="n">
-        <v>1059.950756782464</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U46" t="n">
-        <v>777.1526093285881</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V46" t="n">
-        <v>777.1526093285881</v>
+        <v>1814.368536419624</v>
       </c>
       <c r="W46" t="n">
-        <v>777.1526093285881</v>
+        <v>1760.610136310991</v>
       </c>
       <c r="X46" t="n">
-        <v>777.1526093285881</v>
+        <v>1522.266274170675</v>
       </c>
       <c r="Y46" t="n">
-        <v>777.1526093285881</v>
+        <v>1297.53057555944</v>
       </c>
     </row>
   </sheetData>
@@ -7982,25 +7984,25 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>553.2940084590247</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P2" t="n">
-        <v>270.21439869122</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8064,19 +8066,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>175.4852242574857</v>
       </c>
       <c r="P3" t="n">
-        <v>525.3716274158285</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8213,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>231.0841246958421</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N5" t="n">
-        <v>493.8215862770622</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O5" t="n">
         <v>93.18977562578313</v>
@@ -8292,22 +8294,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>62.07087134908675</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>391.1981341283837</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L8" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>534.7878950544003</v>
       </c>
       <c r="O8" t="n">
-        <v>594.1598684051008</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8529,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O9" t="n">
-        <v>266.9965351298663</v>
+        <v>334.1030092285466</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
-        <v>292.3871721926164</v>
+        <v>590.1064824525346</v>
       </c>
       <c r="L11" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M11" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N11" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O11" t="n">
         <v>93.18977562578313</v>
@@ -8711,7 +8713,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,19 +8774,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>527.2265162238735</v>
       </c>
       <c r="M12" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N12" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O12" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P12" t="n">
-        <v>525.3716274158285</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8930,16 +8932,16 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M14" t="n">
-        <v>553.2940084590249</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N14" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O14" t="n">
-        <v>615.2533459958087</v>
+        <v>594.1598684051006</v>
       </c>
       <c r="P14" t="n">
         <v>93.64936328088416</v>
@@ -8948,7 +8950,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,25 +9011,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>557.0846165901669</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N15" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O15" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>525.3716274158282</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>611.1999600432426</v>
+        <v>333.3534809699544</v>
       </c>
       <c r="L17" t="n">
-        <v>272.0504334731807</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M17" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N17" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O17" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P17" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R17" t="n">
         <v>87.31214281472352</v>
@@ -9243,25 +9245,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N18" t="n">
-        <v>575.2569637637755</v>
+        <v>93.75312630912927</v>
       </c>
       <c r="O18" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P18" t="n">
-        <v>201.8514806265826</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9401,25 +9403,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K20" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L20" t="n">
-        <v>231.0841246958424</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M20" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N20" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O20" t="n">
-        <v>615.2533459958087</v>
+        <v>553.1935596277623</v>
       </c>
       <c r="P20" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R20" t="n">
         <v>128.2784515920617</v>
@@ -9480,28 +9482,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M21" t="n">
-        <v>558.5343765177347</v>
+        <v>236.9512395019904</v>
       </c>
       <c r="N21" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,28 +9640,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L23" t="n">
-        <v>95.48539806284482</v>
+        <v>496.3946935832875</v>
       </c>
       <c r="M23" t="n">
-        <v>535.1658287548267</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N23" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O23" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P23" t="n">
-        <v>615.7129336509097</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q23" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M24" t="n">
-        <v>57.56428373841742</v>
+        <v>72.04887768380517</v>
       </c>
       <c r="N24" t="n">
-        <v>232.5803491573234</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q24" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,25 +9874,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L26" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M26" t="n">
-        <v>228.888951090043</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N26" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O26" t="n">
-        <v>615.2533459958087</v>
+        <v>494.0990711462258</v>
       </c>
       <c r="P26" t="n">
-        <v>615.7129336509097</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q26" t="n">
         <v>414.4388617681339</v>
@@ -9951,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>265.3595799407153</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N27" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>334.1030092285466</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q27" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K29" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L29" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M29" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N29" t="n">
-        <v>337.1293820533569</v>
+        <v>228.5110173896169</v>
       </c>
       <c r="O29" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P29" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q29" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>203.7063694346279</v>
       </c>
       <c r="M30" t="n">
-        <v>502.6011371814508</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N30" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O30" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P30" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>330.076592815888</v>
+        <v>249.8886267436438</v>
       </c>
       <c r="K32" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L32" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M32" t="n">
-        <v>494.1995199774884</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N32" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O32" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P32" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q32" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10437,13 +10439,13 @@
         <v>579.627854108443</v>
       </c>
       <c r="N33" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>558.7215717793176</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>555.2297277821215</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L35" t="n">
-        <v>617.5489684328704</v>
+        <v>496.3946935832877</v>
       </c>
       <c r="M35" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N35" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O35" t="n">
-        <v>553.1935596277625</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P35" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q35" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10662,28 +10664,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>578.1780941808746</v>
+        <v>70.59911775623726</v>
       </c>
       <c r="M36" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>558.7215717793176</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K38" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L38" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M38" t="n">
-        <v>615.3537948270711</v>
+        <v>228.888951090043</v>
       </c>
       <c r="N38" t="n">
-        <v>296.1630732760186</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O38" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P38" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q38" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
         <v>128.2784515920617</v>
@@ -10899,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>578.1780941808746</v>
+        <v>235.5014795744219</v>
       </c>
       <c r="M39" t="n">
-        <v>363.7739143332572</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O39" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L41" t="n">
         <v>95.48539806284482</v>
@@ -11072,13 +11074,13 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O41" t="n">
-        <v>553.1935596277625</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P41" t="n">
         <v>615.7129336509097</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>293.2845869185513</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11142,25 +11144,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>72.04887768380517</v>
       </c>
       <c r="N42" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>392.2643757374379</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>292.3871721926164</v>
+        <v>177.6265134511</v>
       </c>
       <c r="L44" t="n">
-        <v>617.5489684328704</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>615.3537948270711</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>92.91229075661933</v>
+        <v>405.3976004214464</v>
       </c>
       <c r="O44" t="n">
-        <v>615.2533459958087</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>446.8108790239028</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>13.5311868844814</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>19.76545843403778</v>
+        <v>18.66945891416648</v>
       </c>
       <c r="J45" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>516.2361426485535</v>
+        <v>476.4099526115285</v>
       </c>
       <c r="L45" t="n">
-        <v>578.1780941808746</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>579.627854108443</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>421.0562344946771</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>365.2615795084296</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>19.9817458341367</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22550,10 +22552,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>317.009644738952</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>184.6400904297027</v>
       </c>
       <c r="F2" t="n">
         <v>416.8201079258493</v>
@@ -22601,7 +22603,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -22610,7 +22612,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -22708,22 +22710,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>174.5973550380961</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22781,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -22832,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>49.30679480005733</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>296.5721544411405</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -22942,25 +22944,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,25 +22989,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>187.3847136220174</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23018,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
@@ -23075,19 +23077,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>187.7677259381413</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>390.2983828659826</v>
       </c>
     </row>
     <row r="9">
@@ -23176,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>45.62226398710935</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>55.3526305130049</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -23255,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.55422061770378</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>404.6410012660961</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>105.6963980312145</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300493</v>
+        <v>55.3526305130049</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23495,25 +23497,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>82.81157159938806</v>
+        <v>319.8756664145147</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
         <v>219.9844192126098</v>
@@ -23555,10 +23557,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300493</v>
+        <v>55.3526305130049</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23738,13 +23740,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>17.77593127593025</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -23789,16 +23791,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>305.9441559029069</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>102.9647224806632</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -23938,7 +23940,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>8.893130557884632</v>
       </c>
     </row>
     <row r="20">
@@ -23972,19 +23974,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>1.375113957950987</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>267.404389184582</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -24029,13 +24031,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,19 +24180,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884234</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24203,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.375113957950589</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>376.4250847118726</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
@@ -24266,13 +24268,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -24415,10 +24417,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>115.4622864852429</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>8.89313055788412</v>
       </c>
     </row>
     <row r="26">
@@ -24455,13 +24457,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>216.1932889658789</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24500,16 +24502,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>33.57311257359009</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -24613,13 +24615,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>85.88537458423338</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24654,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884689</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24692,13 +24694,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>313.9481933162661</v>
+        <v>186.735181240666</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
@@ -24737,16 +24739,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,25 +24888,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884689</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>157.1745055375997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>43.72525779371335</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,19 +24970,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>224.8916267550948</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25072,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>165.577887163712</v>
@@ -25126,22 +25128,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>56.01419322081114</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="35">
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25160,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>334.4524497978534</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -25169,10 +25171,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>254.489886823085</v>
@@ -25217,10 +25219,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>390.2983828659821</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>93.42449318090689</v>
+        <v>128.610957271867</v>
       </c>
       <c r="I37" t="n">
         <v>115.1825854367171</v>
@@ -25369,13 +25371,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>108.0467688931083</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25445,13 +25447,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>214.4554797256276</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -25546,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>26.00588493933796</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>116.6551145993942</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -25634,19 +25636,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>8.67989281745804</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>369.5678441589104</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,16 +25681,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>23.230667360871</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>129.840962977198</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
@@ -25834,16 +25836,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -25877,13 +25879,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>169.9882399090543</v>
+        <v>403.4664492046432</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>295.7705310992044</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>40.20632670693379</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25922,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>70.20374283044981</v>
       </c>
     </row>
     <row r="45">
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>23.12472639190918</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>60.73028694681985</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>175.3460544540683</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>234.9021070775794</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9414279637351</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>223.058151738668</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>562127.5626645724</v>
+        <v>562127.5626645725</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>562127.5626645726</v>
+        <v>562127.5626645725</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>562127.5626645725</v>
+        <v>562127.5626645726</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>562127.5626645725</v>
+        <v>562127.5626645724</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>562127.5626645725</v>
+        <v>562127.5626645724</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>562127.5626645725</v>
+        <v>562127.5626645723</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>562127.5626645725</v>
+        <v>562127.5626645724</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>562127.5626645725</v>
+        <v>562127.5626645724</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>562127.5626645724</v>
+        <v>562127.5626645725</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>562127.5626645725</v>
+        <v>566118.5045737406</v>
       </c>
     </row>
   </sheetData>
@@ -26314,13 +26316,13 @@
         <v>161720.1620581894</v>
       </c>
       <c r="C2" t="n">
-        <v>161720.1620581895</v>
+        <v>161720.1620581894</v>
       </c>
       <c r="D2" t="n">
         <v>161720.1620581895</v>
       </c>
       <c r="E2" t="n">
-        <v>161720.1620581895</v>
+        <v>161720.1620581894</v>
       </c>
       <c r="F2" t="n">
         <v>161720.1620581894</v>
@@ -26344,16 +26346,16 @@
         <v>161720.1620581895</v>
       </c>
       <c r="M2" t="n">
-        <v>161720.1620581895</v>
+        <v>161720.1620581894</v>
       </c>
       <c r="N2" t="n">
-        <v>161720.1620581895</v>
+        <v>161720.1620581894</v>
       </c>
       <c r="O2" t="n">
         <v>161720.1620581895</v>
       </c>
       <c r="P2" t="n">
-        <v>161720.1620581894</v>
+        <v>170576.1910874399</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.5098931141</v>
+        <v>174955.509893114</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.800805895</v>
+        <v>136594.8008058949</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>194461.2236348305</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58375.0800038374</v>
+        <v>58375.08000383739</v>
       </c>
       <c r="C4" t="n">
-        <v>58375.0800038374</v>
+        <v>58375.08000383739</v>
       </c>
       <c r="D4" t="n">
         <v>58375.0800038374</v>
       </c>
       <c r="E4" t="n">
-        <v>58375.08000383741</v>
+        <v>58375.0800038374</v>
       </c>
       <c r="F4" t="n">
-        <v>58375.0800038374</v>
+        <v>58375.08000383739</v>
       </c>
       <c r="G4" t="n">
-        <v>58375.0800038374</v>
+        <v>58375.08000383739</v>
       </c>
       <c r="H4" t="n">
-        <v>58375.0800038374</v>
+        <v>58375.08000383739</v>
       </c>
       <c r="I4" t="n">
         <v>58375.0800038374</v>
       </c>
       <c r="J4" t="n">
+        <v>58375.08000383739</v>
+      </c>
+      <c r="K4" t="n">
+        <v>58375.08000383741</v>
+      </c>
+      <c r="L4" t="n">
         <v>58375.0800038374</v>
-      </c>
-      <c r="K4" t="n">
-        <v>58375.0800038374</v>
-      </c>
-      <c r="L4" t="n">
-        <v>58375.08000383741</v>
       </c>
       <c r="M4" t="n">
         <v>58375.0800038374</v>
       </c>
       <c r="N4" t="n">
-        <v>58375.08000383741</v>
+        <v>58375.0800038374</v>
       </c>
       <c r="O4" t="n">
         <v>58375.0800038374</v>
       </c>
       <c r="P4" t="n">
-        <v>58375.0800038374</v>
+        <v>34772.16023439026</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="C5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="E5" t="n">
         <v>31741.46507849755</v>
@@ -26509,7 +26511,7 @@
         <v>31741.46507849755</v>
       </c>
       <c r="P5" t="n">
-        <v>31741.46507849755</v>
+        <v>38110.76726974139</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-136979.4929172596</v>
       </c>
       <c r="C6" t="n">
-        <v>37976.01697585456</v>
+        <v>37976.01697585449</v>
       </c>
       <c r="D6" t="n">
-        <v>37976.01697585456</v>
+        <v>37976.01697585451</v>
       </c>
       <c r="E6" t="n">
-        <v>71603.61697585449</v>
+        <v>71603.61697585441</v>
       </c>
       <c r="F6" t="n">
-        <v>71603.61697585447</v>
+        <v>71603.6169758545</v>
       </c>
       <c r="G6" t="n">
+        <v>71603.61697585453</v>
+      </c>
+      <c r="H6" t="n">
         <v>71603.6169758545</v>
       </c>
-      <c r="H6" t="n">
-        <v>71603.61697585447</v>
-      </c>
       <c r="I6" t="n">
-        <v>71603.61697585447</v>
+        <v>71603.61697585444</v>
       </c>
       <c r="J6" t="n">
         <v>-64991.18383004051</v>
       </c>
       <c r="K6" t="n">
-        <v>71603.61697585453</v>
+        <v>71603.6169758545</v>
       </c>
       <c r="L6" t="n">
-        <v>71603.61697585449</v>
+        <v>71603.6169758545</v>
       </c>
       <c r="M6" t="n">
+        <v>71603.61697585444</v>
+      </c>
+      <c r="N6" t="n">
+        <v>71603.61697585447</v>
+      </c>
+      <c r="O6" t="n">
         <v>71603.6169758545</v>
       </c>
-      <c r="N6" t="n">
-        <v>71603.61697585451</v>
-      </c>
-      <c r="O6" t="n">
-        <v>71603.61697585453</v>
-      </c>
       <c r="P6" t="n">
-        <v>71603.61697585447</v>
+        <v>-96767.96005152218</v>
       </c>
     </row>
   </sheetData>
@@ -26777,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>292.1698252864143</v>
       </c>
     </row>
     <row r="4">
@@ -26787,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="C4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="F4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="H4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="I4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>522.0635703700256</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>292.1698252864143</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.174552061452921</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>12.02888129935473</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>45.28191834916378</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>99.68863802573995</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>149.4074267870421</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>185.353124437732</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>206.2410646605954</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>209.5782607051985</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>197.898808644126</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>168.902054627007</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>126.8384089262242</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>73.78095593024211</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>26.76510510035846</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>5.141601649010164</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.09396416491623366</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.6284407562764384</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>6.069414672459287</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>21.63710498583352</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>59.37386987259106</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>101.4794005431124</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>136.4515773660749</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>159.2325547810958</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>163.446966694897</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>149.5220425689822</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>120.004621257735</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>80.21991127486606</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>39.0184532712687</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>11.67301141592419</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>2.533057258851082</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.04134478659713412</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.5268636193689438</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>4.684296543116613</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>15.84422593520424</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>37.24925788938432</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>61.21197323213728</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>78.33025119236099</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>82.58826717071543</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>80.62450277124942</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>74.46977776316675</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>63.72175992804024</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>44.11764361824856</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>23.6897041945345</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>9.181795984820591</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>2.251144555485487</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.02873801560194242</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34702,25 +34704,25 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5650354103359</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34784,19 +34786,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>117.7337452574857</v>
       </c>
       <c r="P3" t="n">
-        <v>471.1119924130247</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L5" t="n">
-        <v>522.0635703700256</v>
+        <v>135.5987266329973</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N5" t="n">
-        <v>400.9092955204429</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -35012,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>10.70163254908674</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700256</v>
+        <v>338.0047407346337</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>441.875604297781</v>
       </c>
       <c r="O8" t="n">
-        <v>500.9700927793177</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O9" t="n">
-        <v>209.2450561298663</v>
+        <v>276.3515302285466</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>203.2507825193993</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="L11" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M11" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N11" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -35431,7 +35433,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>471.1119924130245</v>
       </c>
       <c r="M12" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N12" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O12" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P12" t="n">
-        <v>471.1119924130247</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35650,16 +35652,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M14" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N14" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O14" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35668,7 +35670,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N15" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O15" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>471.1119924130245</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>522.0635703700256</v>
+        <v>244.2170912967373</v>
       </c>
       <c r="L17" t="n">
-        <v>176.5650354103359</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O17" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N18" t="n">
-        <v>522.0635703700256</v>
+        <v>40.55973291537929</v>
       </c>
       <c r="O18" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P18" t="n">
-        <v>147.5918456237788</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,25 +36123,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>135.5987266329976</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O20" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="P20" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>40.9663087773382</v>
@@ -36200,28 +36202,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M21" t="n">
-        <v>500.9700927793173</v>
+        <v>179.3869557635729</v>
       </c>
       <c r="N21" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,28 +36360,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>400.9092955204427</v>
       </c>
       <c r="M23" t="n">
-        <v>441.8756042977813</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q23" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="N24" t="n">
-        <v>179.3869557635734</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q24" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>135.5987266329975</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204427</v>
       </c>
       <c r="P26" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q26" t="n">
         <v>324.4050573689818</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>209.2450561298663</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N27" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>276.3515302285466</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q27" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L29" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>244.2170912967376</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="O29" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>147.5918456237788</v>
       </c>
       <c r="M30" t="n">
-        <v>445.0368534430334</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O30" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P30" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>256.7530014825801</v>
+        <v>176.5650354103358</v>
       </c>
       <c r="K32" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M32" t="n">
-        <v>400.9092955204429</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q32" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,13 +37159,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O33" t="n">
+      <c r="P33" t="n">
         <v>500.9700927793177</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37303,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L35" t="n">
+        <v>400.9092955204429</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M35" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N35" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O35" t="n">
-        <v>460.0037840019794</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
         <v>40.9663087773382</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
+        <v>14.48459394538821</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M36" t="n">
+      <c r="P36" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N36" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O36" t="n">
-        <v>500.9700927793177</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>135.5987266329975</v>
+      </c>
+      <c r="N38" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L38" t="n">
+      <c r="O38" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M38" t="n">
+      <c r="P38" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N38" t="n">
-        <v>203.2507825193993</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
         <v>40.9663087773382</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>522.0635703700256</v>
+        <v>179.3869557635729</v>
       </c>
       <c r="M39" t="n">
-        <v>306.2096305948398</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -37792,13 +37794,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O41" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P41" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="R41" t="n">
         <v>40.9663087773382</v>
@@ -37862,25 +37864,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O42" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P42" t="n">
-        <v>338.0047407346341</v>
-      </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825801</v>
+        <v>26.365046692432</v>
       </c>
       <c r="K44" t="n">
-        <v>203.2507825193993</v>
+        <v>237.897550564925</v>
       </c>
       <c r="L44" t="n">
+        <v>89.86772637488717</v>
+      </c>
+      <c r="M44" t="n">
+        <v>112.9508402035499</v>
+      </c>
+      <c r="N44" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M44" t="n">
+      <c r="O44" t="n">
+        <v>104.7090330183429</v>
+      </c>
+      <c r="P44" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>451.2434662952061</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>254.1343320570691</v>
       </c>
       <c r="K45" t="n">
-        <v>460.4103598639381</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L45" t="n">
-        <v>522.0635703700256</v>
+        <v>80.33705355522588</v>
       </c>
       <c r="M45" t="n">
-        <v>522.0635703700256</v>
+        <v>101.6682710426784</v>
       </c>
       <c r="N45" t="n">
-        <v>367.8628411009271</v>
+        <v>110.253573301147</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>91.77056356898225</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>431.0065657633608</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>433.5981584304049</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>14.22479737900053</v>
+        <v>51.47405526838485</v>
       </c>
       <c r="K46" t="n">
-        <v>156.1134623456949</v>
+        <v>217.3254355778322</v>
       </c>
       <c r="L46" t="n">
-        <v>262.5223235152127</v>
+        <v>340.8525747075737</v>
       </c>
       <c r="M46" t="n">
-        <v>292.1859155964578</v>
+        <v>374.7741827671733</v>
       </c>
       <c r="N46" t="n">
-        <v>283.67553777197</v>
+        <v>364.3000405432194</v>
       </c>
       <c r="O46" t="n">
-        <v>262.1824346732062</v>
+        <v>336.652212436373</v>
       </c>
       <c r="P46" t="n">
-        <v>207.7529699491034</v>
+        <v>271.4747298771437</v>
       </c>
       <c r="Q46" t="n">
-        <v>66.18992909344529</v>
+        <v>110.3075727116939</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>272463.1043111884</v>
+        <v>266380.8350332474</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12215006.43341689</v>
+        <v>11821355.91763805</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10110838.6025033</v>
+        <v>10162932.89091065</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6502254.778634815</v>
+        <v>6499950.109125282</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>225.5567228985696</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.7478913232534</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868341</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
         <v>157.7484451748619</v>
@@ -797,7 +797,7 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
-        <v>211.5744117368965</v>
+        <v>211.5744117368968</v>
       </c>
       <c r="W3" t="n">
         <v>211.1008365810345</v>
@@ -822,22 +822,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>74.06628901778504</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>116.7028221395631</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>84.62146965378281</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1031,7 +1031,7 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U6" t="n">
-        <v>195.3773027531633</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V6" t="n">
         <v>211.5744117368965</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>96.9444415113348</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.628923455408183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1226,13 +1226,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
-        <v>105.9202115588044</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H9" t="n">
         <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>96.83817354751359</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -1356,7 +1356,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1378,10 +1378,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>63.83076163619418</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
@@ -1432,10 +1432,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>290.9405658215225</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>106.9101097868341</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T12" t="n">
         <v>157.7484451748619</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>35.73692418651402</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>71.88434366058382</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
@@ -1621,13 +1621,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>84.7653348515814</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I15" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>106.9101097868341</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T15" t="n">
         <v>157.7484451748619</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>129.0564489160606</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>386.8650699901659</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>41.8729898157256</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>399.0441766499191</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>383.5604440308339</v>
       </c>
     </row>
     <row r="21">
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>228.2601210751807</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>262.2537570519885</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -2326,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>40.39502321397676</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>96.76647418252652</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>213.5952110672388</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="26">
@@ -2560,19 +2560,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>188.4477123002172</v>
+        <v>261.17478890507</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2718,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>228.2601210751802</v>
+        <v>75.58415000895569</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
@@ -2775,10 +2775,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2794,25 +2794,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>95.02849444588597</v>
       </c>
       <c r="G29" t="n">
-        <v>217.9058200254302</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>65.48383042464037</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>228.2601210751802</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
@@ -3018,7 +3018,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>360.9157434723828</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>85.48824505609757</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
         <v>219.9844192126098</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>104.5534112865727</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I33" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3268,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>75.74436353041882</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>85.48824505609757</v>
@@ -3319,22 +3319,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>273.2217977593271</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I36" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>19.50042337073094</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>298.0721989747363</v>
+        <v>35.07315710718577</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -3663,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>58.41410620201638</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -3726,10 +3726,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="41">
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>35.07315710718577</v>
+        <v>383.5604440308339</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>35.73692418651402</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="44">
@@ -3994,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>107.1631593534817</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>214.8428175635996</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3959226581688</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4042,10 +4042,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>298.0721989747363</v>
       </c>
       <c r="Y44" t="n">
-        <v>326.723563490941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4070,13 +4070,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>105.2917708025282</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H45" t="n">
-        <v>63.97032616218182</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>95.23709837091006</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T45" t="n">
-        <v>155.2153879160108</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3359579665663</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.0510235443431</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>143.4270840994813</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>99.33835950151285</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>53.22081610754638</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>679.7247499512507</v>
+        <v>1687.610883649055</v>
       </c>
       <c r="C2" t="n">
-        <v>269.6001592645208</v>
+        <v>1277.486292962325</v>
       </c>
       <c r="D2" t="n">
-        <v>269.6001592645208</v>
+        <v>873.0223630553855</v>
       </c>
       <c r="E2" t="n">
-        <v>41.76508562960203</v>
+        <v>458.6821475722822</v>
       </c>
       <c r="F2" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>558.6080202959272</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M2" t="n">
         <v>1014.011766457887</v>
@@ -4345,7 +4345,7 @@
         <v>1530.854701124212</v>
       </c>
       <c r="O2" t="n">
-        <v>2047.697635790537</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P2" t="n">
         <v>2047.697635790537</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221061</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>1089.94592961574</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>1089.94592961574</v>
+        <v>1687.610883649055</v>
       </c>
       <c r="Y2" t="n">
-        <v>1089.94592961574</v>
+        <v>1687.610883649055</v>
       </c>
     </row>
     <row r="3">
@@ -4403,31 +4403,31 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L3" t="n">
-        <v>41.76508562960203</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="M3" t="n">
-        <v>558.6080202959272</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="N3" t="n">
-        <v>1075.450954962252</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O3" t="n">
-        <v>1192.007362767163</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.850297433488</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1131.098935930739</v>
+        <v>454.9232824936402</v>
       </c>
       <c r="C4" t="n">
-        <v>960.0055634924552</v>
+        <v>283.8299100553567</v>
       </c>
       <c r="D4" t="n">
-        <v>800.5109188153651</v>
+        <v>283.8299100553567</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>283.8299100553567</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
         <v>470.2970630371111</v>
@@ -4515,25 +4515,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="W4" t="n">
-        <v>1571.163982250452</v>
+        <v>1105.702549639236</v>
       </c>
       <c r="X4" t="n">
-        <v>1543.534340936018</v>
+        <v>867.3586874989198</v>
       </c>
       <c r="Y4" t="n">
-        <v>1318.798642324783</v>
+        <v>642.6229888876845</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1592.556869842094</v>
+        <v>569.7713148411432</v>
       </c>
       <c r="C5" t="n">
-        <v>1182.432279155364</v>
+        <v>159.6467241544133</v>
       </c>
       <c r="D5" t="n">
-        <v>1182.432279155364</v>
+        <v>159.6467241544133</v>
       </c>
       <c r="E5" t="n">
-        <v>1182.432279155364</v>
+        <v>159.6467241544133</v>
       </c>
       <c r="F5" t="n">
-        <v>761.4018671090519</v>
+        <v>159.6467241544133</v>
       </c>
       <c r="G5" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959272</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>692.8507596625946</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M5" t="n">
-        <v>1209.69369432892</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="N5" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="O5" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P5" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2002.778049506584</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2002.778049506584</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>2002.778049506584</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V5" t="n">
-        <v>2002.778049506584</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W5" t="n">
-        <v>2002.778049506584</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="X5" t="n">
-        <v>2002.778049506584</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="Y5" t="n">
-        <v>2002.778049506584</v>
+        <v>979.9924945056326</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
         <v>234.5779431922353</v>
@@ -4652,19 +4652,19 @@
         <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1207.227134123859</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>1724.070068790184</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
-        <v>2058.694762117472</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O6" t="n">
-        <v>2058.694762117472</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P6" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
         <v>470.2970630371111</v>
@@ -4755,22 +4755,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U7" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V7" t="n">
-        <v>1571.163982250452</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W7" t="n">
-        <v>1571.163982250452</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X7" t="n">
-        <v>1543.534340936018</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y7" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1270.693821706375</v>
+        <v>1990.330603185825</v>
       </c>
       <c r="C8" t="n">
-        <v>860.5692310196448</v>
+        <v>1580.206012499095</v>
       </c>
       <c r="D8" t="n">
-        <v>456.1053011127053</v>
+        <v>1175.742082592155</v>
       </c>
       <c r="E8" t="n">
-        <v>41.76508562960203</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="F8" t="n">
-        <v>41.76508562960203</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>812.7934917636815</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L8" t="n">
-        <v>812.7934917636815</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M8" t="n">
-        <v>812.7934917636815</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N8" t="n">
-        <v>1250.250340018485</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O8" t="n">
-        <v>1767.09327468481</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P8" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q8" t="n">
         <v>2088.254281480102</v>
@@ -4834,22 +4834,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1990.330603185825</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1990.330603185825</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1990.330603185825</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>1990.330603185825</v>
       </c>
       <c r="X8" t="n">
-        <v>1687.610883649054</v>
+        <v>1990.330603185825</v>
       </c>
       <c r="Y8" t="n">
-        <v>1680.915001370864</v>
+        <v>1990.330603185825</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161362</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650818</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844742</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768022</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593068</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>751.4208778585604</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M9" t="n">
-        <v>1268.263812524885</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N9" t="n">
-        <v>1785.106747191211</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O9" t="n">
-        <v>2058.694762117472</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
         <v>2058.694762117472</v>
@@ -4916,19 +4916,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U9" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517228</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="10">
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.76508562960203</v>
+        <v>310.6747949845659</v>
       </c>
       <c r="C10" t="n">
-        <v>41.76508562960203</v>
+        <v>139.5814225462825</v>
       </c>
       <c r="D10" t="n">
-        <v>41.76508562960203</v>
+        <v>139.5814225462825</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76508562960203</v>
+        <v>139.5814225462825</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L10" t="n">
         <v>470.2970630371111</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U10" t="n">
-        <v>777.1526093285881</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="V10" t="n">
-        <v>503.2668642681101</v>
+        <v>828.0883216160082</v>
       </c>
       <c r="W10" t="n">
-        <v>224.1971997769844</v>
+        <v>549.0186571248826</v>
       </c>
       <c r="X10" t="n">
-        <v>41.76508562960203</v>
+        <v>310.6747949845659</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.76508562960203</v>
+        <v>310.6747949845659</v>
       </c>
     </row>
     <row r="11">
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>446.2290155365415</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="C11" t="n">
-        <v>446.2290155365415</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="D11" t="n">
-        <v>41.76508562960203</v>
+        <v>941.6112299632543</v>
       </c>
       <c r="E11" t="n">
-        <v>41.76508562960203</v>
+        <v>527.2710144801511</v>
       </c>
       <c r="F11" t="n">
-        <v>41.76508562960203</v>
+        <v>106.2406024338386</v>
       </c>
       <c r="G11" t="n">
-        <v>41.76508562960203</v>
+        <v>106.2406024338386</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76508562960203</v>
+        <v>106.2406024338386</v>
       </c>
       <c r="I11" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K11" t="n">
-        <v>537.7254774811263</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L11" t="n">
-        <v>1054.568412147451</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M11" t="n">
-        <v>1571.411346813777</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N11" t="n">
-        <v>2088.254281480102</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O11" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P11" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q11" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R11" t="n">
         <v>2088.254281480102</v>
@@ -5071,22 +5071,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T11" t="n">
-        <v>1730.766722221061</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U11" t="n">
-        <v>1473.706230480572</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V11" t="n">
-        <v>1123.868675817052</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="W11" t="n">
-        <v>740.1083749522209</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="X11" t="n">
-        <v>446.2290155365415</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="Y11" t="n">
-        <v>446.2290155365415</v>
+        <v>1346.075159870194</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C12" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D12" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E12" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F12" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G12" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J12" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K12" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L12" t="n">
-        <v>508.1659581184963</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.008892784821</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N12" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O12" t="n">
-        <v>2058.694762117472</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P12" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q12" t="n">
         <v>2058.694762117472</v>
@@ -5156,16 +5156,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V12" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W12" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X12" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y12" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.76508562960203</v>
+        <v>733.9929469847658</v>
       </c>
       <c r="C13" t="n">
-        <v>41.76508562960203</v>
+        <v>562.8995745464823</v>
       </c>
       <c r="D13" t="n">
-        <v>41.76508562960203</v>
+        <v>403.4049298693923</v>
       </c>
       <c r="E13" t="n">
-        <v>41.76508562960203</v>
+        <v>242.4941147377118</v>
       </c>
       <c r="F13" t="n">
-        <v>41.76508562960203</v>
+        <v>77.86298884830308</v>
       </c>
       <c r="G13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J13" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K13" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L13" t="n">
         <v>470.2970630371111</v>
@@ -5223,28 +5223,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R13" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S13" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T13" t="n">
-        <v>1059.950756782464</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U13" t="n">
-        <v>777.1526093285881</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="V13" t="n">
-        <v>503.2668642681101</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="W13" t="n">
-        <v>224.1971997769844</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="X13" t="n">
-        <v>41.76508562960203</v>
+        <v>1146.428351990045</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.76508562960203</v>
+        <v>921.6926533788102</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2088.254281480102</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="C14" t="n">
-        <v>1678.129690793372</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="D14" t="n">
-        <v>1273.665760886433</v>
+        <v>1274.395973214227</v>
       </c>
       <c r="E14" t="n">
-        <v>859.3255454033292</v>
+        <v>860.0557577311233</v>
       </c>
       <c r="F14" t="n">
-        <v>438.2951333570168</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G14" t="n">
-        <v>352.673583001884</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J14" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K14" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L14" t="n">
-        <v>558.6080202959272</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M14" t="n">
-        <v>1075.450954962252</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N14" t="n">
-        <v>1592.293889628578</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O14" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P14" t="n">
         <v>2088.254281480102</v>
@@ -5305,25 +5305,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S14" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T14" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U14" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V14" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W14" t="n">
-        <v>2088.254281480102</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="X14" t="n">
-        <v>2088.254281480102</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="Y14" t="n">
-        <v>2088.254281480102</v>
+        <v>1347.00642135623</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C15" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D15" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E15" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F15" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G15" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K15" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L15" t="n">
-        <v>41.76508562960203</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M15" t="n">
-        <v>558.6080202959272</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N15" t="n">
-        <v>1075.450954962252</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O15" t="n">
-        <v>1592.293889628578</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P15" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q15" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R15" t="n">
         <v>2088.254281480102</v>
@@ -5393,16 +5393,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V15" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W15" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X15" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y15" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K16" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L16" t="n">
         <v>470.2970630371111</v>
@@ -5460,28 +5460,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R16" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S16" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T16" t="n">
-        <v>1059.950756782464</v>
+        <v>1254.4121647202</v>
       </c>
       <c r="U16" t="n">
-        <v>777.1526093285881</v>
+        <v>971.614017266324</v>
       </c>
       <c r="V16" t="n">
-        <v>503.2668642681101</v>
+        <v>971.614017266324</v>
       </c>
       <c r="W16" t="n">
-        <v>224.1971997769844</v>
+        <v>692.5443527751984</v>
       </c>
       <c r="X16" t="n">
-        <v>41.76508562960203</v>
+        <v>454.2004906348818</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.76508562960203</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1678.033101815612</v>
+        <v>902.9139097323135</v>
       </c>
       <c r="C17" t="n">
-        <v>1267.908511128882</v>
+        <v>492.7893190455836</v>
       </c>
       <c r="D17" t="n">
-        <v>1267.908511128882</v>
+        <v>492.7893190455836</v>
       </c>
       <c r="E17" t="n">
-        <v>853.568295645779</v>
+        <v>492.7893190455836</v>
       </c>
       <c r="F17" t="n">
-        <v>432.5378835994666</v>
+        <v>492.7893190455836</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960203</v>
+        <v>84.06103493841579</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J17" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K17" t="n">
-        <v>537.7254774811263</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L17" t="n">
-        <v>1054.568412147451</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="M17" t="n">
         <v>1571.411346813777</v>
       </c>
       <c r="N17" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O17" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P17" t="n">
         <v>2088.254281480102</v>
@@ -5554,13 +5554,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W17" t="n">
-        <v>2088.254281480102</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="X17" t="n">
-        <v>2088.254281480102</v>
+        <v>1303.850582784223</v>
       </c>
       <c r="Y17" t="n">
-        <v>2088.254281480102</v>
+        <v>902.9139097323135</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G18" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K18" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L18" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M18" t="n">
-        <v>1531.257211227551</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N18" t="n">
+        <v>1207.227134123859</v>
+      </c>
+      <c r="O18" t="n">
         <v>1571.411346813777</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2088.254281480102</v>
       </c>
       <c r="P18" t="n">
         <v>2088.254281480102</v>
@@ -5630,16 +5630,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X18" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L19" t="n">
         <v>470.2970630371111</v>
@@ -5718,7 +5718,7 @@
         <v>257.5178240813579</v>
       </c>
       <c r="Y19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1678.033101815612</v>
+        <v>352.673583001884</v>
       </c>
       <c r="C20" t="n">
-        <v>1267.908511128882</v>
+        <v>352.673583001884</v>
       </c>
       <c r="D20" t="n">
-        <v>864.8335852198732</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E20" t="n">
-        <v>450.4933697367699</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F20" t="n">
-        <v>450.4933697367699</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G20" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J20" t="n">
-        <v>41.76508562960203</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="K20" t="n">
-        <v>41.76508562960203</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="L20" t="n">
-        <v>558.6080202959272</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="M20" t="n">
-        <v>1075.450954962252</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="N20" t="n">
-        <v>1592.293889628578</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O20" t="n">
-        <v>2047.697635790537</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P20" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q20" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R20" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T20" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U20" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V20" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W20" t="n">
-        <v>2088.254281480102</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X20" t="n">
-        <v>2088.254281480102</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="Y20" t="n">
-        <v>2088.254281480102</v>
+        <v>352.673583001884</v>
       </c>
     </row>
     <row r="21">
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C21" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D21" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E21" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F21" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G21" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H21" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I21" t="n">
-        <v>41.76508562960204</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J21" t="n">
-        <v>41.76508562960204</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K21" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L21" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M21" t="n">
-        <v>1192.007362767163</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N21" t="n">
-        <v>1192.007362767163</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O21" t="n">
-        <v>1192.007362767163</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P21" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q21" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R21" t="n">
         <v>2088.254281480102</v>
@@ -5867,16 +5867,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V21" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W21" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X21" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C22" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D22" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E22" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F22" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G22" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H22" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I22" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J22" t="n">
-        <v>572.937934264462</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K22" t="n">
-        <v>727.4902619867</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L22" t="n">
-        <v>987.3873622667606</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M22" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N22" t="n">
-        <v>1557.490201101504</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O22" t="n">
-        <v>1817.050811427978</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P22" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q22" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R22" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S22" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T22" t="n">
-        <v>1857.688502616283</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U22" t="n">
-        <v>1574.890355162407</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V22" t="n">
-        <v>1301.004610101929</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W22" t="n">
-        <v>1021.934945610803</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X22" t="n">
-        <v>783.5910834704868</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y22" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>492.6927300678236</v>
+        <v>1598.16880121803</v>
       </c>
       <c r="C23" t="n">
-        <v>82.56813938109372</v>
+        <v>1188.0442105313</v>
       </c>
       <c r="D23" t="n">
-        <v>82.56813938109372</v>
+        <v>1188.0442105313</v>
       </c>
       <c r="E23" t="n">
-        <v>82.56813938109372</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="F23" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G23" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H23" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J23" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K23" t="n">
-        <v>812.7934917636815</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L23" t="n">
-        <v>1209.69369432892</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M23" t="n">
-        <v>1209.69369432892</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N23" t="n">
-        <v>1209.69369432892</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O23" t="n">
         <v>1209.69369432892</v>
@@ -6016,25 +6016,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S23" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T23" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U23" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V23" t="n">
-        <v>2088.254281480102</v>
+        <v>1598.16880121803</v>
       </c>
       <c r="W23" t="n">
-        <v>1704.49398061527</v>
+        <v>1598.16880121803</v>
       </c>
       <c r="X23" t="n">
-        <v>1303.850582784223</v>
+        <v>1598.16880121803</v>
       </c>
       <c r="Y23" t="n">
-        <v>902.9139097323131</v>
+        <v>1598.16880121803</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C24" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D24" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E24" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F24" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G24" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H24" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I24" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J24" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K24" t="n">
-        <v>690.384199457534</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L24" t="n">
-        <v>1207.227134123859</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="M24" t="n">
-        <v>1221.566882129793</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="N24" t="n">
-        <v>1221.566882129793</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="O24" t="n">
-        <v>1221.566882129793</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P24" t="n">
-        <v>1738.409816796118</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q24" t="n">
         <v>2088.254281480102</v>
@@ -6104,16 +6104,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V24" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W24" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X24" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y24" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C25" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D25" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E25" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F25" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G25" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H25" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I25" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J25" t="n">
-        <v>572.937934264462</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K25" t="n">
-        <v>727.4902619867</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L25" t="n">
-        <v>987.3873622667606</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M25" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N25" t="n">
-        <v>1557.490201101504</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O25" t="n">
-        <v>1817.050811427978</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P25" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q25" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R25" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S25" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T25" t="n">
-        <v>1848.705542456804</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U25" t="n">
-        <v>1565.907395002928</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V25" t="n">
-        <v>1292.02164994245</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W25" t="n">
-        <v>1012.951985451324</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X25" t="n">
-        <v>774.6081233110078</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y25" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>722.9320027651423</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="C26" t="n">
-        <v>722.9320027651423</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="D26" t="n">
-        <v>318.4680728582028</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="E26" t="n">
-        <v>318.4680728582028</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="F26" t="n">
-        <v>318.4680728582028</v>
+        <v>702.8382637707402</v>
       </c>
       <c r="G26" t="n">
-        <v>128.1168483125289</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H26" t="n">
         <v>128.1168483125289</v>
       </c>
       <c r="I26" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J26" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K26" t="n">
-        <v>812.7934917636815</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L26" t="n">
-        <v>812.7934917636815</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M26" t="n">
-        <v>812.7934917636815</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N26" t="n">
-        <v>812.7934917636815</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O26" t="n">
         <v>1209.69369432892</v>
@@ -6256,22 +6256,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T26" t="n">
-        <v>1730.766722221061</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U26" t="n">
         <v>1473.706230480572</v>
       </c>
       <c r="V26" t="n">
-        <v>1123.868675817052</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W26" t="n">
-        <v>1123.868675817052</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="X26" t="n">
-        <v>1123.868675817052</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="Y26" t="n">
-        <v>722.9320027651423</v>
+        <v>1123.868675817053</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C27" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D27" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E27" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F27" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G27" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H27" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I27" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J27" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K27" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L27" t="n">
-        <v>234.5779431922353</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M27" t="n">
-        <v>751.4208778585604</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N27" t="n">
-        <v>1268.263812524885</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="O27" t="n">
-        <v>1541.851827451147</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="P27" t="n">
-        <v>2058.694762117472</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="Q27" t="n">
-        <v>2058.694762117472</v>
+        <v>2073.914533474168</v>
       </c>
       <c r="R27" t="n">
         <v>2088.254281480102</v>
@@ -6341,16 +6341,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V27" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W27" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X27" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y27" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41.76508562960203</v>
+        <v>628.1240465285898</v>
       </c>
       <c r="C28" t="n">
-        <v>41.76508562960203</v>
+        <v>628.1240465285898</v>
       </c>
       <c r="D28" t="n">
-        <v>41.76508562960203</v>
+        <v>468.6294018514998</v>
       </c>
       <c r="E28" t="n">
-        <v>41.76508562960203</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="F28" t="n">
-        <v>41.76508562960203</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="G28" t="n">
-        <v>41.76508562960203</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H28" t="n">
-        <v>41.76508562960203</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J28" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K28" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L28" t="n">
         <v>470.2970630371111</v>
@@ -6408,28 +6408,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R28" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S28" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T28" t="n">
-        <v>1340.598203386633</v>
+        <v>1409.543637654179</v>
       </c>
       <c r="U28" t="n">
-        <v>1057.800055932758</v>
+        <v>1126.745490200303</v>
       </c>
       <c r="V28" t="n">
-        <v>783.9143108722797</v>
+        <v>852.8597451398251</v>
       </c>
       <c r="W28" t="n">
-        <v>504.844646381154</v>
+        <v>852.8597451398251</v>
       </c>
       <c r="X28" t="n">
-        <v>266.5007842408373</v>
+        <v>852.8597451398251</v>
       </c>
       <c r="Y28" t="n">
-        <v>41.76508562960203</v>
+        <v>628.1240465285898</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>758.3483279138347</v>
+        <v>552.093679340873</v>
       </c>
       <c r="C29" t="n">
-        <v>348.2237372271048</v>
+        <v>552.093679340873</v>
       </c>
       <c r="D29" t="n">
-        <v>348.2237372271048</v>
+        <v>552.093679340873</v>
       </c>
       <c r="E29" t="n">
-        <v>348.2237372271048</v>
+        <v>137.7534638577697</v>
       </c>
       <c r="F29" t="n">
-        <v>348.2237372271048</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G29" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H29" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I29" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J29" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K29" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L29" t="n">
-        <v>558.6080202959273</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="M29" t="n">
-        <v>558.6080202959273</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="N29" t="n">
-        <v>692.8507596625949</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O29" t="n">
-        <v>1209.69369432892</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P29" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q29" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R29" t="n">
         <v>2088.254281480102</v>
@@ -6496,19 +6496,19 @@
         <v>1952.973206274203</v>
       </c>
       <c r="U29" t="n">
-        <v>1952.973206274203</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V29" t="n">
-        <v>1952.973206274203</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="W29" t="n">
-        <v>1569.212905409372</v>
+        <v>962.3148590053625</v>
       </c>
       <c r="X29" t="n">
-        <v>1168.569507578324</v>
+        <v>962.3148590053625</v>
       </c>
       <c r="Y29" t="n">
-        <v>1168.569507578324</v>
+        <v>962.3148590053625</v>
       </c>
     </row>
     <row r="30">
@@ -6518,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C30" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D30" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E30" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F30" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G30" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H30" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I30" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J30" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K30" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L30" t="n">
-        <v>187.8810127971431</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M30" t="n">
+        <v>690.384199457534</v>
+      </c>
+      <c r="N30" t="n">
         <v>704.7239474634683</v>
       </c>
-      <c r="N30" t="n">
+      <c r="O30" t="n">
         <v>1221.566882129794</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1738.409816796119</v>
       </c>
       <c r="P30" t="n">
         <v>1738.409816796119</v>
@@ -6587,7 +6587,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y30" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>41.76508562960205</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="C31" t="n">
-        <v>41.76508562960205</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="D31" t="n">
-        <v>41.76508562960205</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="E31" t="n">
-        <v>41.76508562960205</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="F31" t="n">
-        <v>41.76508562960205</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="G31" t="n">
-        <v>41.76508562960205</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H31" t="n">
         <v>41.76508562960205</v>
@@ -6651,22 +6651,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T31" t="n">
-        <v>1340.598203386633</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U31" t="n">
-        <v>1057.800055932758</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V31" t="n">
-        <v>783.9143108722797</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W31" t="n">
-        <v>504.844646381154</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X31" t="n">
-        <v>266.5007842408373</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y31" t="n">
-        <v>41.76508562960205</v>
+        <v>257.5178240813579</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1208.050632634561</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="C32" t="n">
-        <v>1208.050632634561</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="D32" t="n">
-        <v>803.5867027276217</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="E32" t="n">
-        <v>803.5867027276217</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="F32" t="n">
-        <v>803.5867027276217</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G32" t="n">
-        <v>439.0253456848109</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H32" t="n">
         <v>128.1168483125289</v>
@@ -6700,52 +6700,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J32" t="n">
-        <v>216.5644706858345</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K32" t="n">
-        <v>733.4074053521598</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L32" t="n">
-        <v>733.4074053521598</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M32" t="n">
-        <v>733.4074053521598</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N32" t="n">
-        <v>733.4074053521598</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O32" t="n">
-        <v>1250.250340018485</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P32" t="n">
-        <v>1767.09327468481</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="Q32" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R32" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S32" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T32" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U32" t="n">
-        <v>1608.987305686471</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V32" t="n">
-        <v>1608.987305686471</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W32" t="n">
-        <v>1608.987305686471</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X32" t="n">
-        <v>1608.987305686471</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="Y32" t="n">
-        <v>1208.050632634561</v>
+        <v>1368.096724130499</v>
       </c>
     </row>
     <row r="33">
@@ -6758,7 +6758,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C33" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D33" t="n">
         <v>469.7036984844747</v>
@@ -6767,13 +6767,13 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F33" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G33" t="n">
         <v>133.260889973646</v>
       </c>
       <c r="H33" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I33" t="n">
         <v>41.76508562960205</v>
@@ -6782,22 +6782,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K33" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L33" t="n">
-        <v>558.6080202959273</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="M33" t="n">
-        <v>1075.450954962253</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="N33" t="n">
-        <v>1075.450954962253</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="O33" t="n">
-        <v>1592.293889628578</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P33" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q33" t="n">
         <v>2088.254281480102</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1330.123324390014</v>
+        <v>542.4570637956322</v>
       </c>
       <c r="C35" t="n">
-        <v>919.9987337032845</v>
+        <v>542.4570637956322</v>
       </c>
       <c r="D35" t="n">
-        <v>515.534803796345</v>
+        <v>542.4570637956322</v>
       </c>
       <c r="E35" t="n">
-        <v>439.0253456848109</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="F35" t="n">
-        <v>439.0253456848109</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="G35" t="n">
-        <v>439.0253456848109</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H35" t="n">
         <v>128.1168483125289</v>
@@ -6943,19 +6943,19 @@
         <v>812.7934917636817</v>
       </c>
       <c r="L35" t="n">
-        <v>1209.69369432892</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M35" t="n">
-        <v>1209.69369432892</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N35" t="n">
-        <v>1209.69369432892</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O35" t="n">
-        <v>1209.69369432892</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P35" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q35" t="n">
         <v>2047.697635790537</v>
@@ -6967,22 +6967,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T35" t="n">
-        <v>1730.766722221062</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U35" t="n">
-        <v>1730.766722221062</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V35" t="n">
-        <v>1730.766722221062</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="W35" t="n">
-        <v>1730.766722221062</v>
+        <v>1219.375350745852</v>
       </c>
       <c r="X35" t="n">
-        <v>1330.123324390014</v>
+        <v>943.3937368475421</v>
       </c>
       <c r="Y35" t="n">
-        <v>1330.123324390014</v>
+        <v>542.4570637956322</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C36" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D36" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E36" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F36" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G36" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I36" t="n">
         <v>41.76508562960205</v>
@@ -7022,19 +7022,19 @@
         <v>690.384199457534</v>
       </c>
       <c r="L36" t="n">
-        <v>704.7239474634683</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M36" t="n">
-        <v>704.7239474634683</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N36" t="n">
-        <v>704.7239474634683</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O36" t="n">
-        <v>1221.566882129794</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P36" t="n">
-        <v>1738.409816796119</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q36" t="n">
         <v>2088.254281480102</v>
@@ -7052,16 +7052,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V36" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W36" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X36" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y36" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>884.8428321846941</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C37" t="n">
-        <v>713.7494597464106</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D37" t="n">
-        <v>554.2548150693206</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E37" t="n">
-        <v>393.34399993764</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F37" t="n">
-        <v>228.7128740482313</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G37" t="n">
-        <v>61.46248297377471</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H37" t="n">
         <v>41.76508562960205</v>
@@ -7125,22 +7125,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T37" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U37" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V37" t="n">
-        <v>1297.278237189974</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W37" t="n">
-        <v>1297.278237189974</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X37" t="n">
-        <v>1297.278237189974</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y37" t="n">
-        <v>1072.542538578738</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="38">
@@ -7177,49 +7177,49 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K38" t="n">
-        <v>41.76508562960205</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L38" t="n">
-        <v>41.76508562960205</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M38" t="n">
-        <v>176.0078249962696</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N38" t="n">
-        <v>692.8507596625949</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O38" t="n">
-        <v>1209.69369432892</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P38" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q38" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R38" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S38" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T38" t="n">
-        <v>1730.766722221062</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U38" t="n">
-        <v>1473.706230480572</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V38" t="n">
-        <v>1123.868675817053</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W38" t="n">
-        <v>740.1083749522213</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="X38" t="n">
-        <v>740.1083749522213</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="Y38" t="n">
-        <v>740.1083749522213</v>
+        <v>474.4527771062106</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C39" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D39" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E39" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F39" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G39" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H39" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I39" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J39" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K39" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L39" t="n">
-        <v>675.1644281008379</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M39" t="n">
-        <v>675.1644281008379</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N39" t="n">
-        <v>1192.007362767163</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O39" t="n">
-        <v>1192.007362767163</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P39" t="n">
-        <v>1708.850297433488</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q39" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R39" t="n">
         <v>2088.254281480102</v>
@@ -7289,16 +7289,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V39" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W39" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X39" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y39" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="40">
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>533.263917876656</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C40" t="n">
-        <v>362.1705454383725</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D40" t="n">
-        <v>202.6759007612826</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E40" t="n">
         <v>41.76508562960205</v>
@@ -7356,28 +7356,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R40" t="n">
-        <v>1512.159834571647</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S40" t="n">
-        <v>1325.768066451558</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T40" t="n">
-        <v>1086.21932742826</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U40" t="n">
-        <v>1086.21932742826</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V40" t="n">
-        <v>812.3335823677817</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W40" t="n">
-        <v>533.263917876656</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X40" t="n">
-        <v>533.263917876656</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y40" t="n">
-        <v>533.263917876656</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>474.4527771062106</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="C41" t="n">
-        <v>474.4527771062106</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="D41" t="n">
-        <v>474.4527771062106</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="E41" t="n">
-        <v>474.4527771062106</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="F41" t="n">
-        <v>474.4527771062106</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="G41" t="n">
-        <v>439.0253456848109</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H41" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I41" t="n">
         <v>41.76508562960205</v>
@@ -7414,22 +7414,22 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K41" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L41" t="n">
-        <v>295.9505570973564</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M41" t="n">
-        <v>295.9505570973564</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N41" t="n">
-        <v>812.7934917636817</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="O41" t="n">
-        <v>1329.636426430007</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P41" t="n">
-        <v>1846.479361096332</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q41" t="n">
         <v>2047.697635790537</v>
@@ -7438,25 +7438,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S41" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T41" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U41" t="n">
-        <v>1608.987305686471</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V41" t="n">
-        <v>1259.149751022952</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W41" t="n">
-        <v>875.3894501581206</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X41" t="n">
-        <v>875.3894501581206</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="Y41" t="n">
-        <v>474.4527771062106</v>
+        <v>740.1083749522213</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C42" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D42" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E42" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F42" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G42" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H42" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I42" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J42" t="n">
-        <v>234.5779431922353</v>
+        <v>187.8810127971431</v>
       </c>
       <c r="K42" t="n">
-        <v>690.384199457534</v>
+        <v>187.8810127971431</v>
       </c>
       <c r="L42" t="n">
-        <v>1207.227134123859</v>
+        <v>187.8810127971431</v>
       </c>
       <c r="M42" t="n">
-        <v>1221.566882129793</v>
+        <v>187.8810127971431</v>
       </c>
       <c r="N42" t="n">
-        <v>1221.566882129793</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="O42" t="n">
-        <v>1221.566882129793</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P42" t="n">
-        <v>1738.409816796118</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q42" t="n">
         <v>2088.254281480102</v>
@@ -7526,16 +7526,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V42" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W42" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X42" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y42" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>733.9929469847658</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C43" t="n">
-        <v>562.8995745464823</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D43" t="n">
-        <v>403.4049298693923</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E43" t="n">
-        <v>242.4941147377118</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F43" t="n">
-        <v>77.86298884830308</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G43" t="n">
         <v>41.76508562960205</v>
@@ -7596,25 +7596,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S43" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T43" t="n">
-        <v>1384.772214130362</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U43" t="n">
-        <v>1384.772214130362</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V43" t="n">
-        <v>1384.772214130362</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W43" t="n">
-        <v>1384.772214130362</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X43" t="n">
-        <v>1146.428351990045</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y43" t="n">
-        <v>921.6926533788102</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="C44" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="D44" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="E44" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="F44" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G44" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H44" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I44" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J44" t="n">
-        <v>67.86648185510973</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K44" t="n">
-        <v>303.3850569143855</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L44" t="n">
-        <v>392.3541060255238</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M44" t="n">
-        <v>504.1754378270382</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N44" t="n">
-        <v>1021.018372493363</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O44" t="n">
-        <v>1124.680315181523</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P44" t="n">
-        <v>1641.523249847848</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q44" t="n">
         <v>2088.254281480102</v>
@@ -7675,25 +7675,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S44" t="n">
-        <v>1980.008665971535</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T44" t="n">
-        <v>1762.995718937596</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U44" t="n">
-        <v>1506.030140495001</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V44" t="n">
-        <v>1156.192585831482</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W44" t="n">
-        <v>772.4322849666505</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X44" t="n">
-        <v>371.788887135603</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="Y44" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>693.0818256023001</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C45" t="n">
-        <v>559.0867543512458</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D45" t="n">
-        <v>442.1895965706382</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E45" t="n">
-        <v>321.6967805629662</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F45" t="n">
-        <v>212.7369007454708</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G45" t="n">
-        <v>106.381576702513</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H45" t="n">
-        <v>41.76508562960205</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I45" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J45" t="n">
-        <v>293.3580743661004</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K45" t="n">
-        <v>810.2010090324256</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L45" t="n">
-        <v>889.7346920520993</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M45" t="n">
-        <v>990.3862803843508</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="N45" t="n">
-        <v>1099.537317952486</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="O45" t="n">
-        <v>1190.390175885779</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P45" t="n">
-        <v>1617.086675991506</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q45" t="n">
-        <v>2046.348852837607</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R45" t="n">
-        <v>2046.348852837607</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S45" t="n">
-        <v>1950.149763574061</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T45" t="n">
-        <v>1793.366543456878</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U45" t="n">
-        <v>1596.057495005801</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V45" t="n">
-        <v>1382.345967998835</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W45" t="n">
-        <v>1169.112799735164</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X45" t="n">
-        <v>992.7868178740567</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y45" t="n">
-        <v>833.3848582378868</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1109.830869165395</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C46" t="n">
-        <v>938.7374967271119</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D46" t="n">
-        <v>779.2428520500218</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E46" t="n">
-        <v>618.3320369183414</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F46" t="n">
-        <v>453.7009110289326</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G46" t="n">
-        <v>286.9827054285861</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H46" t="n">
-        <v>142.1068629038575</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I46" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J46" t="n">
-        <v>92.72440034530305</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K46" t="n">
-        <v>307.8765815673569</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L46" t="n">
-        <v>645.3206305278549</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M46" t="n">
-        <v>1016.347071467356</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N46" t="n">
-        <v>1377.004111605144</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O46" t="n">
-        <v>1710.289801917153</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P46" t="n">
-        <v>1979.049784495525</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q46" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R46" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S46" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T46" t="n">
-        <v>2088.254281480102</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U46" t="n">
-        <v>2088.254281480102</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V46" t="n">
-        <v>1814.368536419624</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W46" t="n">
-        <v>1760.610136310991</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X46" t="n">
-        <v>1522.266274170675</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y46" t="n">
-        <v>1297.53057555944</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>553.2940084590247</v>
+        <v>296.5410069764446</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
         <v>90.03380439915205</v>
@@ -8057,28 +8057,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>394.1192645454833</v>
       </c>
       <c r="M3" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637754</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>175.4852242574857</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8215,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432425</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>231.0841246958421</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270709</v>
+        <v>535.1658287548266</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
         <v>93.18977562578313</v>
@@ -8239,7 +8239,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8300,22 +8300,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808745</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1981341283837</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>564.4415429491208</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432425</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>534.7878950544003</v>
+        <v>593.8823835359372</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8534,25 +8534,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808745</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>579.6278541084429</v>
+        <v>564.2543476875383</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>334.1030092285466</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>590.1064824525346</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L11" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M11" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N11" t="n">
-        <v>614.9758611266448</v>
+        <v>493.8215862770623</v>
       </c>
       <c r="O11" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,28 +8768,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>527.2265162238735</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M12" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8926,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L14" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M14" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N14" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O14" t="n">
-        <v>594.1598684051006</v>
+        <v>337.4068669225207</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q14" t="n">
         <v>90.03380439915205</v>
@@ -9005,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>423.9773649117762</v>
       </c>
       <c r="M15" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N15" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>525.3716274158282</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,25 +9163,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K17" t="n">
-        <v>333.3534809699544</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L17" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270709</v>
+        <v>594.2603172363631</v>
       </c>
       <c r="N17" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O17" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P17" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q17" t="n">
         <v>90.03380439915205</v>
@@ -9242,25 +9242,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M18" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>93.75312630912927</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>579.8150493700255</v>
+        <v>425.6143201009271</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.32359133330795</v>
+        <v>249.8886267436438</v>
       </c>
       <c r="K20" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L20" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M20" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N20" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O20" t="n">
-        <v>553.1935596277623</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P20" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q20" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M21" t="n">
-        <v>236.9512395019904</v>
+        <v>425.4271248393445</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P21" t="n">
-        <v>576.3232053728292</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,22 +9640,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>611.1999600432425</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L23" t="n">
-        <v>496.3946935832875</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M23" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N23" t="n">
-        <v>92.91229075661933</v>
+        <v>493.8215862770623</v>
       </c>
       <c r="O23" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P23" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q23" t="n">
         <v>414.4388617681339</v>
@@ -9719,22 +9719,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M24" t="n">
-        <v>72.04887768380517</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>57.751479</v>
+        <v>532.6464328093264</v>
       </c>
       <c r="P24" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q24" t="n">
         <v>410.0708656603775</v>
@@ -9877,10 +9877,10 @@
         <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>611.1999600432425</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L26" t="n">
-        <v>95.48539806284482</v>
+        <v>496.3946935832877</v>
       </c>
       <c r="M26" t="n">
         <v>93.29022445704545</v>
@@ -9889,10 +9889,10 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O26" t="n">
-        <v>494.0990711462258</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P26" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q26" t="n">
         <v>414.4388617681339</v>
@@ -9956,28 +9956,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M27" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>575.2569637637754</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O27" t="n">
-        <v>334.1030092285466</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>576.3232053728292</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>73.48479305079361</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L29" t="n">
-        <v>95.48539806284482</v>
+        <v>537.361002360626</v>
       </c>
       <c r="M29" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N29" t="n">
-        <v>228.5110173896169</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O29" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P29" t="n">
         <v>615.7129336509097</v>
@@ -10135,7 +10135,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,25 +10190,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>203.7063694346279</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>575.2569637637755</v>
+        <v>67.6779873391382</v>
       </c>
       <c r="O30" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q30" t="n">
         <v>410.0708656603775</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>249.8886267436438</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L32" t="n">
         <v>95.48539806284482</v>
@@ -10360,7 +10360,7 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N32" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O32" t="n">
         <v>615.2533459958087</v>
@@ -10369,10 +10369,10 @@
         <v>615.7129336509097</v>
       </c>
       <c r="Q32" t="n">
-        <v>414.4388617681339</v>
+        <v>293.2845869185513</v>
       </c>
       <c r="R32" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,13 +10430,13 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>578.1780941808746</v>
+        <v>265.3595799407153</v>
       </c>
       <c r="M33" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
@@ -10445,10 +10445,10 @@
         <v>579.8150493700256</v>
       </c>
       <c r="P33" t="n">
-        <v>555.2297277821215</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10591,22 +10591,22 @@
         <v>611.1999600432426</v>
       </c>
       <c r="L35" t="n">
-        <v>496.3946935832877</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M35" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N35" t="n">
-        <v>92.91229075661933</v>
+        <v>296.1630732760186</v>
       </c>
       <c r="O35" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P35" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q35" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10670,16 +10670,16 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>70.59911775623726</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O36" t="n">
-        <v>579.8150493700256</v>
+        <v>72.23607294538775</v>
       </c>
       <c r="P36" t="n">
         <v>576.3232053728293</v>
@@ -10825,28 +10825,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K38" t="n">
-        <v>89.13638967321712</v>
+        <v>590.1064824525349</v>
       </c>
       <c r="L38" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M38" t="n">
-        <v>228.888951090043</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N38" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O38" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P38" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q38" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>235.5014795744219</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
         <v>57.56428373841742</v>
@@ -10916,7 +10916,7 @@
         <v>575.2569637637755</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>72.2360729453882</v>
       </c>
       <c r="P39" t="n">
         <v>576.3232053728293</v>
@@ -10925,7 +10925,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,16 +11062,16 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L41" t="n">
-        <v>95.48539806284482</v>
+        <v>298.736180582244</v>
       </c>
       <c r="M41" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N41" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O41" t="n">
         <v>615.2533459958087</v>
@@ -11080,7 +11080,7 @@
         <v>615.7129336509097</v>
       </c>
       <c r="Q41" t="n">
-        <v>293.2845869185513</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11138,22 +11138,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>246.129700984478</v>
+        <v>198.9610844237788</v>
       </c>
       <c r="K42" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>72.04887768380517</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P42" t="n">
         <v>576.3232053728293</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>177.6265134511</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N44" t="n">
-        <v>405.3976004214464</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P44" t="n">
-        <v>446.8108790239028</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
-        <v>13.5311868844814</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>18.66945891416648</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>476.4099526115285</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>72.04887768380563</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>365.2615795084296</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>19.9817458341367</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>184.6400904297027</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>4.072216602595915</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
@@ -22597,22 +22597,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -22710,22 +22710,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>88.91852561272961</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,7 +22755,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -22767,10 +22767,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22795,13 +22795,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>287.938179126533</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -22834,16 +22834,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>49.30679480005733</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
@@ -22852,7 +22852,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22941,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22995,22 +22995,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23035,10 +23035,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -23074,7 +23074,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>123.039977701275</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -23086,10 +23086,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>390.2983828659826</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -23181,7 +23181,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -23190,7 +23190,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>66.14664108300106</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
@@ -23226,13 +23226,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23244,7 +23244,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>55.3526305130049</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -23266,10 +23266,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>404.6410012660961</v>
@@ -23278,7 +23278,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>21.65748341990339</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>105.6963980312145</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>129.840962977198</v>
       </c>
       <c r="H13" t="n">
         <v>148.1113806425979</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>55.3526305130049</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,10 +23497,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>328.5349469472862</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>319.8756664145147</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
@@ -23557,7 +23557,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>108.0968027170043</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.3526305130049</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,16 +23740,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>17.77593127593025</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>265.9264225828336</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -23794,13 +23794,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.893130557884632</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>1.375113957950987</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>13.36686229055692</v>
       </c>
     </row>
     <row r="21">
@@ -24180,13 +24180,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>8.893130557884234</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>8.893130557884717</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,16 +24214,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>376.4250847118726</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>249.5727049343576</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.89313055788412</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="26">
@@ -24448,19 +24448,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>216.1932889658789</v>
+        <v>143.4662123610261</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24606,10 +24606,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
@@ -24618,10 +24618,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>8.893130557884689</v>
+        <v>161.5691016241092</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>321.7916134799633</v>
       </c>
       <c r="G29" t="n">
-        <v>186.735181240666</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,16 +24736,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -24852,10 +24852,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>100.0940567390716</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -24891,7 +24891,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>8.893130557884689</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>43.72525779371335</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>292.3738950348181</v>
       </c>
     </row>
     <row r="33">
@@ -25156,13 +25156,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>334.4524497978534</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -25171,7 +25171,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>123.4151660934099</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>128.610957271867</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
         <v>115.1825854367171</v>
@@ -25365,22 +25365,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>108.0467688931083</v>
+        <v>371.0458107606588</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25551,13 +25551,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>26.00588493933796</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="41">
@@ -25642,13 +25642,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>369.5678441589104</v>
+        <v>21.08055723526223</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>129.840962977198</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
@@ -25836,25 +25836,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="44">
@@ -25879,13 +25879,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>403.4664492046432</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>295.7705310992044</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.20632670693379</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>98.56476487800069</v>
       </c>
       <c r="Y44" t="n">
-        <v>70.20374283044981</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>60.73028694681985</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>175.3460544540683</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>234.9021070775794</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9414279637351</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>223.058151738668</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>562127.5626645724</v>
+        <v>562127.5626645725</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>562127.5626645725</v>
+        <v>562127.5626645724</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>562127.5626645725</v>
+        <v>562127.5626645726</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>562127.5626645726</v>
+        <v>562127.5626645724</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>562127.5626645724</v>
+        <v>562127.5626645725</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>562127.5626645725</v>
+        <v>562127.5626645724</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>562127.5626645723</v>
+        <v>562127.5626645724</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>562127.5626645724</v>
+        <v>562127.5626645725</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>562127.5626645724</v>
+        <v>562127.5626645725</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>562127.5626645725</v>
+        <v>562127.5626645724</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>562127.5626645725</v>
+        <v>562127.5626645724</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>566118.5045737406</v>
+        <v>562127.5626645724</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>161720.1620581894</v>
+        <v>161720.1620581895</v>
       </c>
       <c r="C2" t="n">
         <v>161720.1620581894</v>
@@ -26331,31 +26331,31 @@
         <v>161720.1620581895</v>
       </c>
       <c r="H2" t="n">
-        <v>161720.1620581894</v>
+        <v>161720.1620581895</v>
       </c>
       <c r="I2" t="n">
         <v>161720.1620581894</v>
       </c>
       <c r="J2" t="n">
+        <v>161720.1620581895</v>
+      </c>
+      <c r="K2" t="n">
         <v>161720.1620581894</v>
-      </c>
-      <c r="K2" t="n">
-        <v>161720.1620581895</v>
       </c>
       <c r="L2" t="n">
         <v>161720.1620581895</v>
       </c>
       <c r="M2" t="n">
-        <v>161720.1620581894</v>
+        <v>161720.1620581895</v>
       </c>
       <c r="N2" t="n">
-        <v>161720.1620581894</v>
+        <v>161720.1620581895</v>
       </c>
       <c r="O2" t="n">
         <v>161720.1620581895</v>
       </c>
       <c r="P2" t="n">
-        <v>170576.1910874399</v>
+        <v>161720.1620581895</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.509893114</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058949</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>194461.2236348305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58375.08000383739</v>
+        <v>58375.0800038374</v>
       </c>
       <c r="C4" t="n">
-        <v>58375.08000383739</v>
+        <v>58375.0800038374</v>
       </c>
       <c r="D4" t="n">
         <v>58375.0800038374</v>
@@ -26429,22 +26429,22 @@
         <v>58375.0800038374</v>
       </c>
       <c r="F4" t="n">
-        <v>58375.08000383739</v>
+        <v>58375.08000383741</v>
       </c>
       <c r="G4" t="n">
-        <v>58375.08000383739</v>
+        <v>58375.08000383741</v>
       </c>
       <c r="H4" t="n">
-        <v>58375.08000383739</v>
+        <v>58375.08000383741</v>
       </c>
       <c r="I4" t="n">
         <v>58375.0800038374</v>
       </c>
       <c r="J4" t="n">
-        <v>58375.08000383739</v>
+        <v>58375.0800038374</v>
       </c>
       <c r="K4" t="n">
-        <v>58375.08000383741</v>
+        <v>58375.0800038374</v>
       </c>
       <c r="L4" t="n">
         <v>58375.0800038374</v>
@@ -26453,13 +26453,13 @@
         <v>58375.0800038374</v>
       </c>
       <c r="N4" t="n">
-        <v>58375.0800038374</v>
+        <v>58375.08000383741</v>
       </c>
       <c r="O4" t="n">
         <v>58375.0800038374</v>
       </c>
       <c r="P4" t="n">
-        <v>34772.16023439026</v>
+        <v>58375.08000383741</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
         <v>31741.46507849755</v>
@@ -26511,7 +26511,7 @@
         <v>31741.46507849755</v>
       </c>
       <c r="P5" t="n">
-        <v>38110.76726974139</v>
+        <v>31741.46507849755</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-136979.4929172596</v>
+        <v>-137657.0217766536</v>
       </c>
       <c r="C6" t="n">
-        <v>37976.01697585449</v>
+        <v>37298.48811646043</v>
       </c>
       <c r="D6" t="n">
-        <v>37976.01697585451</v>
+        <v>37298.48811646046</v>
       </c>
       <c r="E6" t="n">
-        <v>71603.61697585441</v>
+        <v>70926.08811646042</v>
       </c>
       <c r="F6" t="n">
-        <v>71603.6169758545</v>
+        <v>70926.08811646038</v>
       </c>
       <c r="G6" t="n">
-        <v>71603.61697585453</v>
+        <v>70926.08811646049</v>
       </c>
       <c r="H6" t="n">
-        <v>71603.6169758545</v>
+        <v>70926.08811646044</v>
       </c>
       <c r="I6" t="n">
-        <v>71603.61697585444</v>
+        <v>70926.08811646039</v>
       </c>
       <c r="J6" t="n">
-        <v>-64991.18383004051</v>
+        <v>-65668.71268943453</v>
       </c>
       <c r="K6" t="n">
-        <v>71603.6169758545</v>
+        <v>70926.08811646042</v>
       </c>
       <c r="L6" t="n">
-        <v>71603.6169758545</v>
+        <v>70926.08811646045</v>
       </c>
       <c r="M6" t="n">
-        <v>71603.61697585444</v>
+        <v>70926.08811646048</v>
       </c>
       <c r="N6" t="n">
-        <v>71603.61697585447</v>
+        <v>70926.08811646044</v>
       </c>
       <c r="O6" t="n">
-        <v>71603.6169758545</v>
+        <v>70926.08811646045</v>
       </c>
       <c r="P6" t="n">
-        <v>-96767.96005152218</v>
+        <v>70926.08811646044</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>292.1698252864143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="F4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="H4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="I4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>522.0635703700256</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>292.1698252864143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.174552061452921</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>12.02888129935473</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>45.28191834916378</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>99.68863802573995</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>149.4074267870421</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>185.353124437732</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>206.2410646605954</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>209.5782607051985</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>197.898808644126</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>168.902054627007</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>126.8384089262242</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>73.78095593024211</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>26.76510510035846</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>5.141601649010164</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.09396416491623366</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6284407562764384</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>6.069414672459287</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>21.63710498583352</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>59.37386987259106</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>101.4794005431124</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>136.4515773660749</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>159.2325547810958</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>163.446966694897</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>149.5220425689822</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>120.004621257735</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>80.21991127486606</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>39.0184532712687</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>11.67301141592419</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>2.533057258851082</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04134478659713412</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5268636193689438</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>4.684296543116613</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>15.84422593520424</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>37.24925788938432</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>61.21197323213728</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>78.33025119236099</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>82.58826717071543</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>80.62450277124942</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>74.46977776316675</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>63.72175992804024</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>44.11764361824856</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>23.6897041945345</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>9.181795984820591</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>2.251144555485487</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02873801560194242</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>460.0037840019792</v>
+        <v>203.2507825193992</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>338.0047407346343</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>117.7337452574857</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>135.5987266329973</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>522.0635703700254</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -34959,7 +34959,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>338.0047407346337</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
-        <v>441.875604297781</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700254</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>276.3515302285466</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>522.0635703700254</v>
+        <v>400.909295520443</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>471.1119924130245</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M12" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>29.85810036629282</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L14" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M14" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>500.9700927793174</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>367.8628411009272</v>
       </c>
       <c r="M15" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N15" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>471.1119924130245</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>244.2170912967373</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L17" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M17" t="n">
-        <v>522.0635703700254</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="N17" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M18" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>40.55973291537929</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>176.5650354103358</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L20" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M20" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>460.0037840019792</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M21" t="n">
-        <v>179.3869557635729</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P21" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,22 +36360,22 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>400.9092955204427</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>400.909295520443</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P23" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q23" t="n">
         <v>324.4050573689818</v>
@@ -36439,22 +36439,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M24" t="n">
-        <v>14.48459394538775</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>474.8949538093264</v>
       </c>
       <c r="P24" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q24" t="n">
         <v>353.3782471555388</v>
@@ -36597,10 +36597,10 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -36609,10 +36609,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>400.9092955204427</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q26" t="n">
         <v>324.4050573689818</v>
@@ -36676,28 +36676,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M27" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O27" t="n">
-        <v>276.3515302285466</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>29.85810036629282</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K29" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>135.5987266329976</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>522.0635703700256</v>
@@ -36855,7 +36855,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R29" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>147.5918456237788</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>522.0635703700256</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="O30" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q30" t="n">
         <v>353.3782471555388</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>176.5650354103358</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>522.0635703700256</v>
@@ -37089,10 +37089,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q32" t="n">
-        <v>324.4050573689818</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,13 +37150,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>522.0635703700256</v>
+        <v>209.2450561298663</v>
       </c>
       <c r="M33" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37165,10 +37165,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P33" t="n">
-        <v>500.9700927793177</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37311,22 +37311,22 @@
         <v>522.0635703700256</v>
       </c>
       <c r="L35" t="n">
-        <v>400.9092955204429</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>40.9663087773382</v>
@@ -37390,16 +37390,16 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>14.48459394538821</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O36" t="n">
-        <v>522.0635703700256</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="P36" t="n">
         <v>522.0635703700256</v>
@@ -37545,28 +37545,28 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M38" t="n">
-        <v>135.5987266329975</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N38" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P38" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>179.3869557635729</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37636,7 +37636,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="P39" t="n">
         <v>522.0635703700256</v>
@@ -37645,7 +37645,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,16 +37782,16 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>203.2507825193992</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>522.0635703700256</v>
@@ -37800,7 +37800,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q41" t="n">
-        <v>203.2507825193993</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>40.9663087773382</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>194.760462184478</v>
+        <v>147.5918456237788</v>
       </c>
       <c r="K42" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M42" t="n">
-        <v>14.48459394538775</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P42" t="n">
         <v>522.0635703700256</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>26.365046692432</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>237.897550564925</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L44" t="n">
-        <v>89.86772637488717</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M44" t="n">
-        <v>112.9508402035499</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N44" t="n">
-        <v>522.0635703700256</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O44" t="n">
-        <v>104.7090330183429</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>451.2434662952061</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>254.1343320570691</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
+        <v>460.4103598639381</v>
+      </c>
+      <c r="L45" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L45" t="n">
-        <v>80.33705355522588</v>
-      </c>
       <c r="M45" t="n">
-        <v>101.6682710426784</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="N45" t="n">
-        <v>110.253573301147</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>91.77056356898225</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>431.0065657633608</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q45" t="n">
-        <v>433.5981584304049</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>51.47405526838485</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K46" t="n">
-        <v>217.3254355778322</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L46" t="n">
-        <v>340.8525747075737</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M46" t="n">
-        <v>374.7741827671733</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N46" t="n">
-        <v>364.3000405432194</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O46" t="n">
-        <v>336.652212436373</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P46" t="n">
-        <v>271.4747298771437</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q46" t="n">
-        <v>110.3075727116939</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
